--- a/cHorPA_Tele_2025-2_080325.xlsx
+++ b/cHorPA_Tele_2025-2_080325.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\TELEMÁTICA\2025-2\carga2025_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C0722-CE7A-4500-992C-A0BD6DE8C765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED8D84C-793F-4DB9-9B5E-F8EEA4F53F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="0" windowWidth="10200" windowHeight="10920" firstSheet="31" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10200" yWindow="0" windowWidth="10200" windowHeight="10920" firstSheet="19" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Completos" sheetId="46" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="785">
   <si>
     <t>UNIVERSIDAD TECNOLÓGICA FIDEL VELÁZQUEZ</t>
   </si>
@@ -2448,167 +2448,200 @@
     <t>Formación Sociocultural IV DDA401</t>
   </si>
   <si>
+    <t>DDA701</t>
+  </si>
+  <si>
+    <t>Estadística DDA701</t>
+  </si>
+  <si>
+    <t>Guionismo y Storyboard** DAD305</t>
+  </si>
+  <si>
+    <t>Guionismo y Storyboard** DAD306</t>
+  </si>
+  <si>
+    <t>Guionismo y Storyboard** DAD309</t>
+  </si>
+  <si>
+    <t>LDDPAE903</t>
+  </si>
+  <si>
+    <t>LDDPAE902</t>
+  </si>
+  <si>
+    <t>LDDPAE901</t>
+  </si>
+  <si>
+    <t>Modelado y Espacios Virtuales LDDPAE904</t>
+  </si>
+  <si>
+    <t>Modelado y Espacios Virtuales LDDPAE904 NP</t>
+  </si>
+  <si>
+    <t>Modelado y Espacios Virtuales LDDPAE903</t>
+  </si>
+  <si>
+    <t>Modelado y Espacios Virtuales LDDPAE902</t>
+  </si>
+  <si>
+    <t>Modelado y Espacios Virtuales LDDPAE901</t>
+  </si>
+  <si>
+    <t>Proyecto Integrador I*_ DAD304</t>
+  </si>
+  <si>
+    <t>Proceso de Diseño** DAD308</t>
+  </si>
+  <si>
+    <t>Proceso de Diseño** DAD309</t>
+  </si>
+  <si>
+    <t>Guionismo y Storyboard** DDA401</t>
+  </si>
+  <si>
+    <t>Estética Digital LDDPA701</t>
+  </si>
+  <si>
+    <t>Dirección de Equipos de Alto Rendimiento LDDPA902</t>
+  </si>
+  <si>
+    <t>Dirección de Equipos de Alto Rendimiento LDDPA903</t>
+  </si>
+  <si>
+    <t>Negociación Empresarial LDDPA1001</t>
+  </si>
+  <si>
+    <t>Prototipos y Software 3D** DAD306</t>
+  </si>
+  <si>
+    <t>Diseño Publicitario y Medios Digitales LDDPAE904</t>
+  </si>
+  <si>
+    <t>Diseño Gráfico Experimental LDDPAE904</t>
+  </si>
+  <si>
+    <t>Diseño Gráfico Experimental LDDPAE904 NP</t>
+  </si>
+  <si>
+    <t>Dirección de Equipos de Alto Rendimiento LDDPAE904</t>
+  </si>
+  <si>
+    <t>Dirección de Equipos de Alto Rendimiento LDDPAE904 NP</t>
+  </si>
+  <si>
+    <t>Prototipos y Software 3D** DAD307</t>
+  </si>
+  <si>
+    <t>Prototipos y Software 3D** DAD308</t>
+  </si>
+  <si>
+    <t>Dirección de Equipos de Alto Rendimiento LDDPA901</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Dirección de Equipos de Alto Rendimiento IRICE901</t>
+  </si>
+  <si>
+    <t>Planeación y Organización del Trabajo_* IRICE801</t>
+  </si>
+  <si>
+    <t>Dirección de Equipos de Alto Rendimiento IRICE902</t>
+  </si>
+  <si>
+    <t>Dirección de Equipos de Alto Rendimiento IRICE901 NP</t>
+  </si>
+  <si>
+    <t>Dirección de Equipos de Alto Rendimiento IRICE902 NP</t>
+  </si>
+  <si>
+    <t>Planeación y Organización del Trabajo_* IRICE801 NP</t>
+  </si>
+  <si>
+    <t>Matemáticas para Ingeniería I IRICE801 NP</t>
+  </si>
+  <si>
+    <t>Cómputo en la Nube IRICE801 NP</t>
+  </si>
+  <si>
+    <t>Dirección de Proyectos I IRICE801</t>
+  </si>
+  <si>
+    <t>Dirección de Proyectos I IRICE801 NP</t>
+  </si>
+  <si>
+    <t>Modelos Estadísticos* CD301</t>
+  </si>
+  <si>
+    <t>Hacking Ético IRICE901</t>
+  </si>
+  <si>
+    <t>Hacking Ético IRICE902</t>
+  </si>
+  <si>
+    <t>Diseño de Interfaz Web LDDPA802</t>
+  </si>
+  <si>
+    <t>Diseño de Interfaz Web LDDPA801</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DDA309</t>
+  </si>
+  <si>
+    <t>Desarrollo del Pensamiento y Toma de Decisiones** DDA309</t>
+  </si>
+  <si>
+    <t>DAD301</t>
+  </si>
+  <si>
+    <t>Desarrollo del Pensamiento y Toma de Decisiones** DAD301</t>
+  </si>
+  <si>
+    <t>Desarrollo del Pensamiento y Toma de Decisiones** DAD307</t>
+  </si>
+  <si>
+    <t>Prototipos y Software 3D** DAD309</t>
+  </si>
+  <si>
+    <t>Proyecto Integrador I*_ DAD308</t>
+  </si>
+  <si>
+    <t>Animación en 2D DDA401</t>
+  </si>
+  <si>
+    <t>Física DDA401</t>
+  </si>
+  <si>
     <t>Administración del Tiempo LDDPA701</t>
   </si>
   <si>
-    <t>DDA701</t>
-  </si>
-  <si>
-    <t>Estadística DDA701</t>
-  </si>
-  <si>
-    <t>Guionismo y Storyboard** DAD305</t>
-  </si>
-  <si>
-    <t>Guionismo y Storyboard** DAD306</t>
-  </si>
-  <si>
-    <t>Guionismo y Storyboard** DAD309</t>
-  </si>
-  <si>
-    <t>LDDPAE903</t>
-  </si>
-  <si>
-    <t>LDDPAE902</t>
-  </si>
-  <si>
-    <t>LDDPAE901</t>
-  </si>
-  <si>
-    <t>Modelado y Espacios Virtuales LDDPAE904</t>
-  </si>
-  <si>
-    <t>Modelado y Espacios Virtuales LDDPAE904 NP</t>
-  </si>
-  <si>
-    <t>Modelado y Espacios Virtuales LDDPAE903</t>
-  </si>
-  <si>
-    <t>Modelado y Espacios Virtuales LDDPAE902</t>
-  </si>
-  <si>
-    <t>Modelado y Espacios Virtuales LDDPAE901</t>
-  </si>
-  <si>
-    <t>Proyecto Integrador I*_ DAD304</t>
-  </si>
-  <si>
-    <t>Proceso de Diseño** DAD308</t>
-  </si>
-  <si>
-    <t>Proceso de Diseño** DAD309</t>
-  </si>
-  <si>
-    <t>Guionismo y Storyboard** DDA401</t>
-  </si>
-  <si>
-    <t>Estética Digital LDDPA701</t>
-  </si>
-  <si>
-    <t>Dirección de Equipos de Alto Rendimiento LDDPA902</t>
-  </si>
-  <si>
-    <t>Dirección de Equipos de Alto Rendimiento LDDPA903</t>
-  </si>
-  <si>
-    <t>Negociación Empresarial LDDPA1001</t>
-  </si>
-  <si>
-    <t>Prototipos y Software 3D** DAD306</t>
-  </si>
-  <si>
-    <t>Diseño Publicitario y Medios Digitales LDDPAE904</t>
-  </si>
-  <si>
-    <t>Diseño Gráfico Experimental LDDPAE904</t>
-  </si>
-  <si>
-    <t>Diseño Gráfico Experimental LDDPAE904 NP</t>
-  </si>
-  <si>
-    <t>Dirección de Equipos de Alto Rendimiento LDDPAE904</t>
-  </si>
-  <si>
-    <t>Dirección de Equipos de Alto Rendimiento LDDPAE904 NP</t>
-  </si>
-  <si>
-    <t>Prototipos y Software 3D** DAD307</t>
-  </si>
-  <si>
-    <t>Prototipos y Software 3D** DAD308</t>
-  </si>
-  <si>
-    <t>Dirección de Equipos de Alto Rendimiento LDDPA901</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Dirección de Equipos de Alto Rendimiento IRICE901</t>
-  </si>
-  <si>
-    <t>Planeación y Organización del Trabajo_* IRICE801</t>
-  </si>
-  <si>
-    <t>Dirección de Equipos de Alto Rendimiento IRICE902</t>
-  </si>
-  <si>
-    <t>Dirección de Equipos de Alto Rendimiento IRICE901 NP</t>
-  </si>
-  <si>
-    <t>Dirección de Equipos de Alto Rendimiento IRICE902 NP</t>
-  </si>
-  <si>
-    <t>Planeación y Organización del Trabajo_* IRICE801 NP</t>
-  </si>
-  <si>
-    <t>Matemáticas para Ingeniería I IRICE801 NP</t>
-  </si>
-  <si>
-    <t>Cómputo en la Nube IRICE801 NP</t>
-  </si>
-  <si>
-    <t>Dirección de Proyectos I IRICE801</t>
-  </si>
-  <si>
-    <t>Dirección de Proyectos I IRICE801 NP</t>
-  </si>
-  <si>
-    <t>Modelos Estadísticos* CD301</t>
-  </si>
-  <si>
-    <t>Hacking Ético IRICE901</t>
-  </si>
-  <si>
-    <t>Hacking Ético IRICE902</t>
-  </si>
-  <si>
-    <t>Diseño de Interfaz Web LDDPA802</t>
-  </si>
-  <si>
-    <t>Diseño de Interfaz Web LDDPA801</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>DDA309</t>
-  </si>
-  <si>
-    <t>Desarrollo del Pensamiento y Toma de Decisiones** DDA309</t>
-  </si>
-  <si>
-    <t>DAD301</t>
-  </si>
-  <si>
-    <t>Desarrollo del Pensamiento y Toma de Decisiones** DAD301</t>
+    <t>Planeación y Organización del Trabajo LDDPA801</t>
+  </si>
+  <si>
+    <t>Planeación y Organización del Trabajo LDDPA802</t>
+  </si>
+  <si>
+    <t>Optativa: Inteligencia de Negocios IRICE901</t>
+  </si>
+  <si>
+    <t>Optativa: Inteligencia de Negocios IRICE901 NP</t>
+  </si>
+  <si>
+    <t>Dirección de Proyectos II IRICE901</t>
+  </si>
+  <si>
+    <t>Dirección de Proyectos II IRICE901 NP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2858,6 +2891,17 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3637,7 +3681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4012,6 +4056,11 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4072,7 +4121,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4095,11 +4143,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4113,6 +4156,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7440,7 +7512,7 @@
         <v>20LDDPA016</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="N17" s="81">
         <f t="array" ref="N17">INDEX(z_3_Materias!D2:D508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
@@ -7474,7 +7546,7 @@
         <v>20LDDPA016</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="N18" s="81">
         <f t="array" ref="N18">INDEX(z_3_Materias!D2:D508, MATCH(H18, z_3_Materias!A2:A508, 0))</f>
@@ -7508,7 +7580,7 @@
         <v>20LDDPA016</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N19" s="81">
         <f t="array" ref="N19">INDEX(z_3_Materias!D2:D508, MATCH(H19, z_3_Materias!A2:A508, 0))</f>
@@ -7872,19 +7944,19 @@
       <c r="F33" s="86"/>
       <c r="G33" s="87"/>
       <c r="H33" s="107" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I33" s="108"/>
       <c r="J33" s="107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K33" s="108"/>
       <c r="L33" s="107" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M33" s="108"/>
       <c r="N33" s="107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O33" s="108"/>
       <c r="P33" s="100"/>
@@ -7902,19 +7974,19 @@
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
       <c r="H34" s="107" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I34" s="108"/>
       <c r="J34" s="107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K34" s="108"/>
       <c r="L34" s="107" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M34" s="108"/>
       <c r="N34" s="107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O34" s="108"/>
       <c r="P34" s="100"/>
@@ -7932,23 +8004,23 @@
       <c r="F35" s="86"/>
       <c r="G35" s="87"/>
       <c r="H35" s="107" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I35" s="108"/>
       <c r="J35" s="107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K35" s="108"/>
       <c r="L35" s="107" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M35" s="108"/>
       <c r="N35" s="107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O35" s="108"/>
       <c r="P35" s="107" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q35" s="108"/>
       <c r="R35" s="85"/>
@@ -7972,7 +8044,7 @@
       <c r="N36" s="131"/>
       <c r="O36" s="132"/>
       <c r="P36" s="107" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q36" s="108"/>
       <c r="R36" s="85"/>
@@ -7990,19 +8062,19 @@
       <c r="H37" s="85"/>
       <c r="I37" s="87"/>
       <c r="J37" s="107" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K37" s="108"/>
       <c r="L37" s="105" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M37" s="106"/>
       <c r="N37" s="105" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O37" s="106"/>
       <c r="P37" s="107" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q37" s="108"/>
       <c r="R37" s="85"/>
@@ -8020,19 +8092,19 @@
       <c r="H38" s="85"/>
       <c r="I38" s="87"/>
       <c r="J38" s="107" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K38" s="108"/>
       <c r="L38" s="105" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M38" s="106"/>
       <c r="N38" s="105" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O38" s="106"/>
       <c r="P38" s="107" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Q38" s="108"/>
       <c r="R38" s="85"/>
@@ -8050,7 +8122,7 @@
       <c r="H39" s="85"/>
       <c r="I39" s="87"/>
       <c r="J39" s="107" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K39" s="108"/>
       <c r="L39" s="85"/>
@@ -8058,7 +8130,7 @@
       <c r="N39" s="85"/>
       <c r="O39" s="87"/>
       <c r="P39" s="107" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Q39" s="108"/>
       <c r="R39" s="85"/>
@@ -8485,8 +8557,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="H27" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33:O33"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B27" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9249,7 +9321,7 @@
       <c r="F29" s="86"/>
       <c r="G29" s="87"/>
       <c r="H29" s="107" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I29" s="108"/>
       <c r="J29" s="100"/>
@@ -9305,7 +9377,7 @@
       </c>
       <c r="M31" s="143"/>
       <c r="N31" s="107" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="O31" s="108"/>
       <c r="P31" s="107" t="s">
@@ -9335,7 +9407,7 @@
       </c>
       <c r="M32" s="143"/>
       <c r="N32" s="107" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="O32" s="108"/>
       <c r="P32" s="107" t="s">
@@ -9355,23 +9427,23 @@
       <c r="F33" s="86"/>
       <c r="G33" s="87"/>
       <c r="H33" s="107" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I33" s="108"/>
       <c r="J33" s="107" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K33" s="143"/>
       <c r="L33" s="107" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M33" s="143"/>
       <c r="N33" s="107" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O33" s="143"/>
       <c r="P33" s="107" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q33" s="143"/>
       <c r="R33" s="85"/>
@@ -9387,23 +9459,23 @@
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
       <c r="H34" s="107" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I34" s="108"/>
       <c r="J34" s="107" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K34" s="108"/>
       <c r="L34" s="107" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M34" s="108"/>
       <c r="N34" s="107" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O34" s="108"/>
       <c r="P34" s="107" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q34" s="143"/>
       <c r="R34" s="85"/>
@@ -9419,23 +9491,23 @@
       <c r="F35" s="86"/>
       <c r="G35" s="87"/>
       <c r="H35" s="107" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I35" s="108"/>
       <c r="J35" s="107" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K35" s="143"/>
       <c r="L35" s="107" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M35" s="108"/>
       <c r="N35" s="107" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O35" s="108"/>
       <c r="P35" s="107" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q35" s="143"/>
       <c r="R35" s="85"/>
@@ -12868,7 +12940,7 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I15" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="E27" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="J30" sqref="J30:K30"/>
     </sheetView>
   </sheetViews>
@@ -15741,8 +15813,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D33" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:K37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B15" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16081,12 +16153,12 @@
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
       <c r="G15" s="96"/>
-      <c r="H15" s="127" t="s">
+      <c r="H15" s="160" t="s">
         <v>592</v>
       </c>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="162"/>
       <c r="L15" s="11" t="str">
         <f t="array" ref="L15">INDEX(z_3_Materias!B2:B508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
         <v>24DAD018</v>
@@ -16118,12 +16190,12 @@
       <c r="E16" s="63"/>
       <c r="F16" s="63"/>
       <c r="G16" s="96"/>
-      <c r="H16" s="127" t="s">
+      <c r="H16" s="160" t="s">
         <v>592</v>
       </c>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="162"/>
       <c r="L16" s="14" t="str">
         <f t="array" ref="L16">INDEX(z_3_Materias!B2:B508, MATCH(H16, z_3_Materias!A2:A508, 0))</f>
         <v>24DAD018</v>
@@ -16152,12 +16224,12 @@
       <c r="E17" s="63"/>
       <c r="F17" s="63"/>
       <c r="G17" s="96"/>
-      <c r="H17" s="127" t="s">
+      <c r="H17" s="160" t="s">
         <v>592</v>
       </c>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="162"/>
       <c r="L17" s="14" t="str">
         <f t="array" ref="L17">INDEX(z_3_Materias!B2:B508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
         <v>24DAD018</v>
@@ -16186,12 +16258,12 @@
       <c r="E18" s="63"/>
       <c r="F18" s="63"/>
       <c r="G18" s="96"/>
-      <c r="H18" s="127" t="s">
+      <c r="H18" s="160" t="s">
         <v>592</v>
       </c>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="129"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="162"/>
       <c r="L18" s="14" t="str">
         <f t="array" ref="L18">INDEX(z_3_Materias!B2:B508, MATCH(H18, z_3_Materias!A2:A508, 0))</f>
         <v>24DAD018</v>
@@ -16622,7 +16694,7 @@
       </c>
       <c r="M34" s="143"/>
       <c r="N34" s="107" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="O34" s="108"/>
       <c r="P34" s="85"/>
@@ -16648,7 +16720,7 @@
       </c>
       <c r="K35" s="108"/>
       <c r="L35" s="107" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M35" s="108"/>
       <c r="N35" s="107" t="s">
@@ -16751,16 +16823,20 @@
       <c r="E39" s="86"/>
       <c r="F39" s="86"/>
       <c r="G39" s="87"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="101"/>
+      <c r="H39" s="107" t="s">
+        <v>668</v>
+      </c>
+      <c r="I39" s="143"/>
       <c r="J39" s="107" t="s">
+        <v>663</v>
+      </c>
+      <c r="K39" s="108"/>
+      <c r="L39" s="107" t="s">
         <v>668</v>
       </c>
-      <c r="K39" s="108"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="101"/>
+      <c r="M39" s="143"/>
       <c r="N39" s="107" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="O39" s="108"/>
       <c r="P39" s="85"/>
@@ -16777,18 +16853,22 @@
       <c r="E40" s="86"/>
       <c r="F40" s="86"/>
       <c r="G40" s="87"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="101"/>
+      <c r="H40" s="107" t="s">
+        <v>668</v>
+      </c>
+      <c r="I40" s="143"/>
       <c r="J40" s="107" t="s">
         <v>668</v>
       </c>
-      <c r="K40" s="108"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="101"/>
+      <c r="K40" s="143"/>
+      <c r="L40" s="107" t="s">
+        <v>668</v>
+      </c>
+      <c r="M40" s="143"/>
       <c r="N40" s="107" t="s">
         <v>668</v>
       </c>
-      <c r="O40" s="108"/>
+      <c r="O40" s="143"/>
       <c r="P40" s="85"/>
       <c r="Q40" s="87"/>
       <c r="R40" s="85"/>
@@ -17160,7 +17240,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="R27:R41 P27:P41 N27:N41 H27:H41 J27:J41 L27:L41" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="R27:R41 P27:P41 L27:L41 J27:J41 H27:H41 N27:N41" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -17986,7 +18066,7 @@
       <c r="M30" s="87"/>
       <c r="N30" s="85"/>
       <c r="O30" s="87"/>
-      <c r="P30" s="160"/>
+      <c r="P30" s="163"/>
       <c r="Q30" s="87"/>
       <c r="R30" s="85"/>
       <c r="S30" s="87"/>
@@ -18067,7 +18147,7 @@
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
       <c r="H34" s="107" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I34" s="108"/>
       <c r="J34" s="85"/>
@@ -18091,7 +18171,7 @@
       <c r="F35" s="86"/>
       <c r="G35" s="87"/>
       <c r="H35" s="107" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I35" s="108"/>
       <c r="J35" s="85"/>
@@ -18137,7 +18217,7 @@
       <c r="F37" s="86"/>
       <c r="G37" s="87"/>
       <c r="H37" s="107" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I37" s="108"/>
       <c r="J37" s="85"/>
@@ -18161,7 +18241,7 @@
       <c r="F38" s="86"/>
       <c r="G38" s="87"/>
       <c r="H38" s="107" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I38" s="108"/>
       <c r="J38" s="85"/>
@@ -18185,7 +18265,7 @@
       <c r="F39" s="86"/>
       <c r="G39" s="87"/>
       <c r="H39" s="107" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I39" s="108"/>
       <c r="J39" s="85"/>
@@ -18209,7 +18289,7 @@
       <c r="F40" s="86"/>
       <c r="G40" s="87"/>
       <c r="H40" s="107" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I40" s="108"/>
       <c r="J40" s="85"/>
@@ -18622,8 +18702,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:I35"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A32" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19146,7 +19226,7 @@
         <v>24CD016</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N20" s="81">
         <f t="array" ref="N20">INDEX(z_3_Materias!D2:D508, MATCH(H20, z_3_Materias!A2:A508, 0))</f>
@@ -19595,16 +19675,16 @@
       <c r="E37" s="86"/>
       <c r="F37" s="86"/>
       <c r="G37" s="87"/>
-      <c r="H37" s="107" t="s">
-        <v>647</v>
-      </c>
-      <c r="I37" s="108"/>
+      <c r="H37" s="164" t="s">
+        <v>770</v>
+      </c>
+      <c r="I37" s="165"/>
       <c r="J37" s="85"/>
       <c r="K37" s="87"/>
-      <c r="L37" s="107" t="s">
-        <v>647</v>
-      </c>
-      <c r="M37" s="108"/>
+      <c r="L37" s="164" t="s">
+        <v>770</v>
+      </c>
+      <c r="M37" s="165"/>
       <c r="N37" s="85"/>
       <c r="O37" s="87"/>
       <c r="P37" s="85"/>
@@ -19621,16 +19701,16 @@
       <c r="E38" s="86"/>
       <c r="F38" s="86"/>
       <c r="G38" s="87"/>
-      <c r="H38" s="107" t="s">
-        <v>647</v>
-      </c>
-      <c r="I38" s="108"/>
+      <c r="H38" s="164" t="s">
+        <v>770</v>
+      </c>
+      <c r="I38" s="165"/>
       <c r="J38" s="85"/>
       <c r="K38" s="87"/>
-      <c r="L38" s="107" t="s">
-        <v>647</v>
-      </c>
-      <c r="M38" s="108"/>
+      <c r="L38" s="164" t="s">
+        <v>770</v>
+      </c>
+      <c r="M38" s="165"/>
       <c r="N38" s="85"/>
       <c r="O38" s="87"/>
       <c r="P38" s="85"/>
@@ -19647,16 +19727,16 @@
       <c r="E39" s="86"/>
       <c r="F39" s="86"/>
       <c r="G39" s="87"/>
-      <c r="H39" s="161" t="s">
-        <v>771</v>
-      </c>
-      <c r="I39" s="162"/>
+      <c r="H39" s="107" t="s">
+        <v>647</v>
+      </c>
+      <c r="I39" s="108"/>
       <c r="J39" s="85"/>
       <c r="K39" s="87"/>
-      <c r="L39" s="161" t="s">
-        <v>771</v>
-      </c>
-      <c r="M39" s="162"/>
+      <c r="L39" s="107" t="s">
+        <v>647</v>
+      </c>
+      <c r="M39" s="108"/>
       <c r="N39" s="85"/>
       <c r="O39" s="87"/>
       <c r="P39" s="85"/>
@@ -19673,16 +19753,16 @@
       <c r="E40" s="86"/>
       <c r="F40" s="86"/>
       <c r="G40" s="87"/>
-      <c r="H40" s="161" t="s">
-        <v>771</v>
-      </c>
-      <c r="I40" s="162"/>
+      <c r="H40" s="107" t="s">
+        <v>647</v>
+      </c>
+      <c r="I40" s="108"/>
       <c r="J40" s="85"/>
       <c r="K40" s="87"/>
-      <c r="L40" s="161" t="s">
-        <v>771</v>
-      </c>
-      <c r="M40" s="162"/>
+      <c r="L40" s="107" t="s">
+        <v>647</v>
+      </c>
+      <c r="M40" s="108"/>
       <c r="N40" s="85"/>
       <c r="O40" s="87"/>
       <c r="P40" s="85"/>
@@ -20052,7 +20132,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="R27:R41 J27:J41 N27:N41 H27:H41 P27:P41 L27:L41" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="R27:R41 J27:J41 N27:N41 L27:L41 P27:P41 H27:H41" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -22544,7 +22624,7 @@
       <c r="L39" s="126"/>
       <c r="M39" s="103"/>
       <c r="N39" s="105" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O39" s="106"/>
       <c r="P39" s="107" t="s">
@@ -22570,7 +22650,7 @@
       <c r="L40" s="100"/>
       <c r="M40" s="101"/>
       <c r="N40" s="105" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O40" s="106"/>
       <c r="P40" s="107" t="s">
@@ -22596,7 +22676,7 @@
       <c r="L41" s="100"/>
       <c r="M41" s="101"/>
       <c r="N41" s="105" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O41" s="106"/>
       <c r="P41" s="107" t="s">
@@ -22983,8 +23063,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I26" zoomScale="50" zoomScaleNormal="30" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J23" zoomScale="50" zoomScaleNormal="30" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23644,7 +23724,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
-      <c r="L25" s="163"/>
+      <c r="L25" s="166"/>
       <c r="M25" s="72"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
@@ -23702,7 +23782,7 @@
       </c>
       <c r="I27" s="87"/>
       <c r="J27" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K27" s="103"/>
       <c r="L27" s="85"/>
@@ -23726,7 +23806,7 @@
       <c r="H28" s="85"/>
       <c r="I28" s="87"/>
       <c r="J28" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K28" s="103"/>
       <c r="L28" s="85"/>
@@ -23750,7 +23830,7 @@
       <c r="H29" s="85"/>
       <c r="I29" s="87"/>
       <c r="J29" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K29" s="103"/>
       <c r="L29" s="85"/>
@@ -23759,8 +23839,10 @@
       <c r="O29" s="87"/>
       <c r="P29" s="85"/>
       <c r="Q29" s="87"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="142"/>
+      <c r="R29" s="107" t="s">
+        <v>781</v>
+      </c>
+      <c r="S29" s="143"/>
     </row>
     <row r="30" spans="2:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="122" t="s">
@@ -23780,7 +23862,7 @@
       <c r="N30" s="85"/>
       <c r="O30" s="87"/>
       <c r="P30" s="148" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q30" s="103"/>
       <c r="R30" s="100"/>
@@ -23804,7 +23886,7 @@
       <c r="N31" s="85"/>
       <c r="O31" s="87"/>
       <c r="P31" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q31" s="103"/>
       <c r="R31" s="100"/>
@@ -23842,13 +23924,13 @@
       <c r="F33" s="86"/>
       <c r="G33" s="87"/>
       <c r="H33" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I33" s="103"/>
       <c r="J33" s="100"/>
       <c r="K33" s="101"/>
       <c r="L33" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M33" s="103"/>
       <c r="N33" s="100"/>
@@ -23868,17 +23950,17 @@
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
       <c r="H34" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I34" s="103"/>
       <c r="J34" s="100"/>
       <c r="K34" s="101"/>
       <c r="L34" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M34" s="103"/>
       <c r="N34" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O34" s="103"/>
       <c r="P34" s="100"/>
@@ -23897,10 +23979,14 @@
       <c r="G35" s="87"/>
       <c r="H35" s="100"/>
       <c r="I35" s="101"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="101"/>
+      <c r="J35" s="105" t="s">
+        <v>782</v>
+      </c>
+      <c r="K35" s="106"/>
+      <c r="L35" s="105" t="s">
+        <v>782</v>
+      </c>
+      <c r="M35" s="106"/>
       <c r="N35" s="100"/>
       <c r="O35" s="101"/>
       <c r="P35" s="100"/>
@@ -23918,15 +24004,15 @@
       <c r="F36" s="86"/>
       <c r="G36" s="87"/>
       <c r="H36" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I36" s="103"/>
       <c r="J36" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K36" s="103"/>
       <c r="L36" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M36" s="103"/>
       <c r="N36" s="100"/>
@@ -23946,19 +24032,19 @@
       <c r="F37" s="86"/>
       <c r="G37" s="87"/>
       <c r="H37" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I37" s="103"/>
       <c r="J37" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K37" s="103"/>
       <c r="L37" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M37" s="103"/>
       <c r="N37" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O37" s="103"/>
       <c r="P37" s="100"/>
@@ -23976,19 +24062,19 @@
       <c r="F38" s="86"/>
       <c r="G38" s="87"/>
       <c r="H38" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I38" s="103"/>
       <c r="J38" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K38" s="103"/>
       <c r="L38" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M38" s="103"/>
       <c r="N38" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O38" s="103"/>
       <c r="P38" s="100"/>
@@ -24006,19 +24092,19 @@
       <c r="F39" s="86"/>
       <c r="G39" s="87"/>
       <c r="H39" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I39" s="103"/>
       <c r="J39" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K39" s="103"/>
       <c r="L39" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M39" s="103"/>
       <c r="N39" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O39" s="103"/>
       <c r="P39" s="100"/>
@@ -24038,7 +24124,7 @@
       <c r="H40" s="100"/>
       <c r="I40" s="101"/>
       <c r="J40" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K40" s="103"/>
       <c r="L40" s="100"/>
@@ -24426,7 +24512,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="H27:H41 J27:J41 L27:L41 N27:N41 P27:P41 R27:R41" xr:uid="{00000000-0002-0000-1300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="H27:H41 J27:J41 R27:R41 N27:N41 L27:L41 P27:P41" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -24463,8 +24549,8 @@
   </sheetPr>
   <dimension ref="B1:T53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I14" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="H34" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24767,65 +24853,65 @@
         <v>8</v>
       </c>
       <c r="C14" s="67"/>
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="178" t="s">
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="170"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="173"/>
       <c r="L14" s="56" t="s">
         <v>11</v>
       </c>
       <c r="M14" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="168" t="s">
+      <c r="N14" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="171" t="s">
+      <c r="O14" s="172"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="S14" s="172"/>
+      <c r="S14" s="175"/>
     </row>
     <row r="15" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="175"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="178"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="164" t="s">
+      <c r="G15" s="176"/>
+      <c r="H15" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="166"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="45">
         <f t="array" ref="L15">INDEX(z_3_Materias!B2:B508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
         <v>0</v>
       </c>
       <c r="M15" s="46"/>
-      <c r="N15" s="167">
+      <c r="N15" s="170">
         <f t="array" ref="N15">INDEX(z_3_Materias!D2:D508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="165"/>
-      <c r="P15" s="165"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="179">
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="182">
         <f>SUM(N15:Q25)</f>
         <v>25</v>
       </c>
-      <c r="S15" s="180"/>
+      <c r="S15" s="183"/>
       <c r="T15" s="13" t="str">
         <f t="shared" ref="T15:T25" si="0">H15&amp;" "&amp;M15</f>
         <v xml:space="preserve">  </v>
@@ -24833,17 +24919,17 @@
     </row>
     <row r="16" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="90"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="175"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="63"/>
       <c r="F16" s="63"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="164" t="s">
+      <c r="G16" s="176"/>
+      <c r="H16" s="167" t="s">
         <v>650</v>
       </c>
-      <c r="I16" s="165"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="166"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="45" t="str">
         <f t="array" ref="L16">INDEX(z_3_Materias!B2:B508, MATCH(H16, z_3_Materias!A2:A508, 0))</f>
         <v>24DAD021</v>
@@ -24851,15 +24937,15 @@
       <c r="M16" s="46" t="s">
         <v>662</v>
       </c>
-      <c r="N16" s="167">
+      <c r="N16" s="170">
         <f t="array" ref="N16">INDEX(z_3_Materias!D2:D508, MATCH(H16, z_3_Materias!A2:A508, 0))</f>
         <v>4</v>
       </c>
-      <c r="O16" s="165"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="180"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="169"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="183"/>
       <c r="T16" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Proyecto Integrador I*_ DAD305</v>
@@ -24867,17 +24953,17 @@
     </row>
     <row r="17" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="90"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="175"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="178"/>
       <c r="E17" s="63"/>
       <c r="F17" s="63"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="164" t="s">
+      <c r="G17" s="176"/>
+      <c r="H17" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="165"/>
-      <c r="J17" s="165"/>
-      <c r="K17" s="166"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="45" t="str">
         <f t="array" ref="L17">INDEX(z_3_Materias!B2:B508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
         <v>20LDDPA003</v>
@@ -24885,15 +24971,15 @@
       <c r="M17" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="N17" s="167">
+      <c r="N17" s="170">
         <f t="array" ref="N17">INDEX(z_3_Materias!D2:D508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
         <v>3</v>
       </c>
-      <c r="O17" s="165"/>
-      <c r="P17" s="165"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="180"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="183"/>
       <c r="T17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Mercadotecnia Digital LDDPA701</v>
@@ -24901,17 +24987,17 @@
     </row>
     <row r="18" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="90"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="175"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="178"/>
       <c r="E18" s="63"/>
       <c r="F18" s="63"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="164" t="s">
+      <c r="G18" s="176"/>
+      <c r="H18" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="166"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="169"/>
       <c r="L18" s="45" t="str">
         <f t="array" ref="L18">INDEX(z_3_Materias!B2:B508, MATCH(H18, z_3_Materias!A2:A508, 0))</f>
         <v>20LDDPA014</v>
@@ -24919,15 +25005,15 @@
       <c r="M18" s="46" t="s">
         <v>695</v>
       </c>
-      <c r="N18" s="167">
+      <c r="N18" s="170">
         <f t="array" ref="N18">INDEX(z_3_Materias!D2:D508, MATCH(H18, z_3_Materias!A2:A508, 0))</f>
         <v>4</v>
       </c>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="180"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="168"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="183"/>
       <c r="T18" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Diseño Publicitario y Medios Digitales LDDPA902</v>
@@ -24935,17 +25021,17 @@
     </row>
     <row r="19" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="90"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="175"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="63"/>
       <c r="F19" s="63"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="164" t="s">
+      <c r="G19" s="176"/>
+      <c r="H19" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="166"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="169"/>
       <c r="L19" s="45" t="str">
         <f t="array" ref="L19">INDEX(z_3_Materias!B2:B508, MATCH(H19, z_3_Materias!A2:A508, 0))</f>
         <v>20LDDPA014</v>
@@ -24953,15 +25039,15 @@
       <c r="M19" s="46" t="s">
         <v>696</v>
       </c>
-      <c r="N19" s="167">
+      <c r="N19" s="170">
         <f t="array" ref="N19">INDEX(z_3_Materias!D2:D508, MATCH(H19, z_3_Materias!A2:A508, 0))</f>
         <v>4</v>
       </c>
-      <c r="O19" s="165"/>
-      <c r="P19" s="165"/>
-      <c r="Q19" s="166"/>
-      <c r="R19" s="173"/>
-      <c r="S19" s="180"/>
+      <c r="O19" s="168"/>
+      <c r="P19" s="168"/>
+      <c r="Q19" s="169"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="183"/>
       <c r="T19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Diseño Publicitario y Medios Digitales LDDPA903</v>
@@ -24969,17 +25055,17 @@
     </row>
     <row r="20" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="90"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="175"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="178"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="164" t="s">
+      <c r="G20" s="176"/>
+      <c r="H20" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="166"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="169"/>
       <c r="L20" s="45" t="str">
         <f t="array" ref="L20">INDEX(z_3_Materias!B2:B508, MATCH(H20, z_3_Materias!A2:A508, 0))</f>
         <v>20LDDPA014</v>
@@ -24987,15 +25073,15 @@
       <c r="M20" s="46" t="s">
         <v>717</v>
       </c>
-      <c r="N20" s="167">
+      <c r="N20" s="170">
         <f t="array" ref="N20">INDEX(z_3_Materias!D2:D508, MATCH(H20, z_3_Materias!A2:A508, 0))</f>
         <v>4</v>
       </c>
-      <c r="O20" s="165"/>
-      <c r="P20" s="165"/>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="173"/>
-      <c r="S20" s="180"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="169"/>
+      <c r="R20" s="176"/>
+      <c r="S20" s="183"/>
       <c r="T20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Diseño Publicitario y Medios Digitales LDDPA904</v>
@@ -25003,17 +25089,17 @@
     </row>
     <row r="21" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="90"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="175"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="178"/>
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="164" t="s">
+      <c r="G21" s="176"/>
+      <c r="H21" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="166"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="169"/>
       <c r="L21" s="45" t="str">
         <f t="array" ref="L21">INDEX(z_3_Materias!B2:B508, MATCH(H21, z_3_Materias!A2:A508, 0))</f>
         <v>20LDDPA019</v>
@@ -25021,15 +25107,15 @@
       <c r="M21" s="46" t="s">
         <v>690</v>
       </c>
-      <c r="N21" s="167">
+      <c r="N21" s="170">
         <f t="array" ref="N21">INDEX(z_3_Materias!D2:D508, MATCH(H21, z_3_Materias!A2:A508, 0))</f>
         <v>4</v>
       </c>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="166"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="180"/>
+      <c r="O21" s="168"/>
+      <c r="P21" s="168"/>
+      <c r="Q21" s="169"/>
+      <c r="R21" s="176"/>
+      <c r="S21" s="183"/>
       <c r="T21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Gestión de Proyectos LDDPA1001</v>
@@ -25037,17 +25123,17 @@
     </row>
     <row r="22" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="90"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="175"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="178"/>
       <c r="E22" s="63"/>
       <c r="F22" s="63"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="164" t="s">
+      <c r="G22" s="176"/>
+      <c r="H22" s="167" t="s">
         <v>689</v>
       </c>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="166"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="169"/>
       <c r="L22" s="45" t="str">
         <f t="array" ref="L22">INDEX(z_3_Materias!B2:B508, MATCH(H22, z_3_Materias!A2:A508, 0))</f>
         <v>20LDDPA022</v>
@@ -25055,15 +25141,15 @@
       <c r="M22" s="46" t="s">
         <v>690</v>
       </c>
-      <c r="N22" s="167">
+      <c r="N22" s="170">
         <f t="array" ref="N22">INDEX(z_3_Materias!D2:D508, MATCH(H22, z_3_Materias!A2:A508, 0))</f>
         <v>2</v>
       </c>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="173"/>
-      <c r="S22" s="180"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="168"/>
+      <c r="Q22" s="169"/>
+      <c r="R22" s="176"/>
+      <c r="S22" s="183"/>
       <c r="T22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Integradora I_ LDDPA1001</v>
@@ -25071,31 +25157,31 @@
     </row>
     <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="90"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="175"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="178"/>
       <c r="E23" s="63"/>
       <c r="F23" s="63"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="164" t="s">
+      <c r="G23" s="176"/>
+      <c r="H23" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="166"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="169"/>
       <c r="L23" s="45">
         <f t="array" ref="L23">INDEX(z_3_Materias!B1:B507, MATCH(H23, z_3_Materias!A1:A507, 0))</f>
         <v>0</v>
       </c>
       <c r="M23" s="46"/>
-      <c r="N23" s="167">
+      <c r="N23" s="170">
         <f t="array" ref="N23">INDEX(z_3_Materias!D1:D507, MATCH(H23, z_3_Materias!A1:A507, 0))</f>
         <v>0</v>
       </c>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="166"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="180"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="183"/>
       <c r="T23" s="13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -25103,57 +25189,57 @@
     </row>
     <row r="24" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="90"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="175"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="63"/>
       <c r="F24" s="63"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="164" t="s">
+      <c r="G24" s="176"/>
+      <c r="H24" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="166"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="169"/>
       <c r="L24" s="45">
         <f t="array" ref="L24">INDEX(z_3_Materias!B1:B507, MATCH(H24, z_3_Materias!A1:A507, 0))</f>
         <v>0</v>
       </c>
       <c r="M24" s="46"/>
-      <c r="N24" s="167">
+      <c r="N24" s="170">
         <f t="array" ref="N24">INDEX(z_3_Materias!D1:D507, MATCH(H24, z_3_Materias!A1:A507, 0))</f>
         <v>0</v>
       </c>
-      <c r="O24" s="165"/>
-      <c r="P24" s="165"/>
-      <c r="Q24" s="166"/>
-      <c r="R24" s="173"/>
-      <c r="S24" s="180"/>
+      <c r="O24" s="168"/>
+      <c r="P24" s="168"/>
+      <c r="Q24" s="169"/>
+      <c r="R24" s="176"/>
+      <c r="S24" s="183"/>
       <c r="T24" s="13"/>
     </row>
     <row r="25" spans="2:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="91"/>
       <c r="C25" s="72"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="185" t="s">
+      <c r="D25" s="179"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
       <c r="L25" s="57">
         <f t="array" ref="L25">INDEX(z_3_Materias!B2:B508, MATCH(H25, z_3_Materias!A2:A508, 0))</f>
         <v>0</v>
       </c>
       <c r="M25" s="58"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="181"/>
+      <c r="N25" s="185"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="187"/>
+      <c r="R25" s="180"/>
+      <c r="S25" s="184"/>
       <c r="T25" s="13" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -25318,7 +25404,7 @@
       <c r="M32" s="87"/>
       <c r="N32" s="85"/>
       <c r="O32" s="87"/>
-      <c r="P32" s="186"/>
+      <c r="P32" s="189"/>
       <c r="Q32" s="101"/>
       <c r="R32" s="85"/>
       <c r="S32" s="87"/>
@@ -25384,8 +25470,10 @@
       <c r="M35" s="87"/>
       <c r="N35" s="85"/>
       <c r="O35" s="87"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="142"/>
+      <c r="P35" s="107" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q35" s="108"/>
       <c r="R35" s="85"/>
       <c r="S35" s="87"/>
     </row>
@@ -25406,8 +25494,10 @@
       <c r="M36" s="87"/>
       <c r="N36" s="85"/>
       <c r="O36" s="87"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="101"/>
+      <c r="P36" s="107" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q36" s="108"/>
       <c r="R36" s="85"/>
       <c r="S36" s="87"/>
     </row>
@@ -25424,8 +25514,10 @@
       <c r="I37" s="101"/>
       <c r="J37" s="100"/>
       <c r="K37" s="101"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="101"/>
+      <c r="L37" s="107" t="s">
+        <v>716</v>
+      </c>
+      <c r="M37" s="108"/>
       <c r="N37" s="107" t="s">
         <v>692</v>
       </c>
@@ -25479,7 +25571,7 @@
       </c>
       <c r="K39" s="108"/>
       <c r="L39" s="107" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M39" s="108"/>
       <c r="N39" s="107" t="s">
@@ -25511,7 +25603,7 @@
       </c>
       <c r="K40" s="108"/>
       <c r="L40" s="107" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M40" s="108"/>
       <c r="N40" s="107" t="s">
@@ -25537,21 +25629,17 @@
       <c r="H41" s="107" t="s">
         <v>715</v>
       </c>
-      <c r="I41" s="108"/>
+      <c r="I41" s="143"/>
       <c r="J41" s="107" t="s">
         <v>714</v>
       </c>
       <c r="K41" s="143"/>
-      <c r="L41" s="107" t="s">
+      <c r="L41" s="107"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="107" t="s">
         <v>719</v>
-      </c>
-      <c r="M41" s="108"/>
-      <c r="N41" s="107" t="s">
-        <v>719</v>
-      </c>
-      <c r="O41" s="108"/>
-      <c r="P41" s="107" t="s">
-        <v>716</v>
       </c>
       <c r="Q41" s="108"/>
       <c r="R41" s="85"/>
@@ -25569,19 +25657,17 @@
       <c r="H42" s="107" t="s">
         <v>715</v>
       </c>
-      <c r="I42" s="108"/>
+      <c r="I42" s="143"/>
       <c r="J42" s="100"/>
       <c r="K42" s="142"/>
-      <c r="L42" s="107" t="s">
+      <c r="L42" s="107"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="107" t="s">
         <v>719</v>
       </c>
-      <c r="M42" s="108"/>
-      <c r="N42" s="107" t="s">
-        <v>719</v>
-      </c>
-      <c r="O42" s="108"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="101"/>
+      <c r="Q42" s="108"/>
       <c r="R42" s="85"/>
       <c r="S42" s="87"/>
     </row>
@@ -26021,8 +26107,8 @@
   </sheetPr>
   <dimension ref="B1:T52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="J10" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="I27" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26777,19 +26863,15 @@
       <c r="E29" s="86"/>
       <c r="F29" s="86"/>
       <c r="G29" s="87"/>
-      <c r="H29" s="107" t="s">
-        <v>632</v>
-      </c>
-      <c r="I29" s="108"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="101"/>
       <c r="J29" s="85"/>
       <c r="K29" s="87"/>
-      <c r="L29" s="107" t="s">
-        <v>632</v>
-      </c>
-      <c r="M29" s="108"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="101"/>
       <c r="N29" s="85"/>
       <c r="O29" s="87"/>
-      <c r="P29" s="107" t="s">
+      <c r="P29" s="208" t="s">
         <v>632</v>
       </c>
       <c r="Q29" s="108"/>
@@ -26805,16 +26887,16 @@
       <c r="E30" s="86"/>
       <c r="F30" s="86"/>
       <c r="G30" s="87"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="101"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="132"/>
       <c r="R30" s="85"/>
       <c r="S30" s="87"/>
     </row>
@@ -26827,15 +26909,15 @@
       <c r="E31" s="86"/>
       <c r="F31" s="86"/>
       <c r="G31" s="87"/>
-      <c r="H31" s="187"/>
+      <c r="H31" s="190"/>
       <c r="I31" s="101"/>
-      <c r="J31" s="188"/>
+      <c r="J31" s="191"/>
       <c r="K31" s="87"/>
       <c r="L31" s="100"/>
       <c r="M31" s="101"/>
       <c r="N31" s="85"/>
       <c r="O31" s="87"/>
-      <c r="P31" s="100"/>
+      <c r="P31" s="190"/>
       <c r="Q31" s="101"/>
       <c r="R31" s="85"/>
       <c r="S31" s="87"/>
@@ -26849,15 +26931,17 @@
       <c r="E32" s="86"/>
       <c r="F32" s="86"/>
       <c r="G32" s="87"/>
-      <c r="H32" s="187"/>
+      <c r="H32" s="190"/>
       <c r="I32" s="101"/>
-      <c r="J32" s="188"/>
+      <c r="J32" s="191"/>
       <c r="K32" s="87"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="101"/>
+      <c r="L32" s="208" t="s">
+        <v>775</v>
+      </c>
+      <c r="M32" s="108"/>
       <c r="N32" s="85"/>
       <c r="O32" s="87"/>
-      <c r="P32" s="100"/>
+      <c r="P32" s="190"/>
       <c r="Q32" s="101"/>
       <c r="R32" s="85"/>
       <c r="S32" s="87"/>
@@ -26871,16 +26955,20 @@
       <c r="E33" s="86"/>
       <c r="F33" s="86"/>
       <c r="G33" s="87"/>
-      <c r="H33" s="187"/>
+      <c r="H33" s="190"/>
       <c r="I33" s="101"/>
-      <c r="J33" s="188"/>
+      <c r="J33" s="191"/>
       <c r="K33" s="87"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="101"/>
+      <c r="L33" s="208" t="s">
+        <v>632</v>
+      </c>
+      <c r="M33" s="108"/>
       <c r="N33" s="85"/>
       <c r="O33" s="87"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
+      <c r="P33" s="208" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q33" s="108"/>
       <c r="R33" s="85"/>
       <c r="S33" s="87"/>
     </row>
@@ -26893,16 +26981,20 @@
       <c r="E34" s="86"/>
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
-      <c r="H34" s="100"/>
+      <c r="H34" s="190"/>
       <c r="I34" s="101"/>
-      <c r="J34" s="188"/>
+      <c r="J34" s="191"/>
       <c r="K34" s="87"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="101"/>
+      <c r="L34" s="208" t="s">
+        <v>632</v>
+      </c>
+      <c r="M34" s="108"/>
       <c r="N34" s="85"/>
       <c r="O34" s="87"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="142"/>
+      <c r="P34" s="208" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q34" s="108"/>
       <c r="R34" s="85"/>
       <c r="S34" s="87"/>
     </row>
@@ -26916,15 +27008,17 @@
       <c r="F35" s="86"/>
       <c r="G35" s="87"/>
       <c r="H35" s="100"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="188"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="191"/>
       <c r="K35" s="87"/>
       <c r="L35" s="100"/>
-      <c r="M35" s="189"/>
+      <c r="M35" s="192"/>
       <c r="N35" s="85"/>
       <c r="O35" s="87"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="142"/>
+      <c r="P35" s="208" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q35" s="108"/>
       <c r="R35" s="85"/>
       <c r="S35" s="87"/>
     </row>
@@ -26937,16 +27031,16 @@
       <c r="E36" s="86"/>
       <c r="F36" s="86"/>
       <c r="G36" s="87"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="189"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="213"/>
+      <c r="J36" s="212"/>
+      <c r="K36" s="213"/>
+      <c r="L36" s="214"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="212"/>
+      <c r="O36" s="132"/>
+      <c r="P36" s="212"/>
+      <c r="Q36" s="213"/>
       <c r="R36" s="85"/>
       <c r="S36" s="87"/>
     </row>
@@ -27215,15 +27309,15 @@
       <c r="I49" s="63"/>
     </row>
     <row r="50" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="191" t="s">
+      <c r="C50" s="193" t="s">
         <v>560</v>
       </c>
-      <c r="D50" s="192"/>
-      <c r="E50" s="192"/>
-      <c r="F50" s="192"/>
-      <c r="G50" s="192"/>
-      <c r="H50" s="192"/>
-      <c r="I50" s="192"/>
+      <c r="D50" s="194"/>
+      <c r="E50" s="194"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="194"/>
     </row>
     <row r="51" spans="3:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="123" t="s">
@@ -27424,7 +27518,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="H27:H41 L27:L41 R27:R41 N27:N41 J27:J41 P27:P41" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="L27:L41 H27:H41 R27:R41 N27:N41 J27:J41 P27:P41" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -28258,7 +28352,7 @@
       <c r="M30" s="132"/>
       <c r="N30" s="131"/>
       <c r="O30" s="132"/>
-      <c r="P30" s="194"/>
+      <c r="P30" s="196"/>
       <c r="Q30" s="132"/>
       <c r="R30" s="85"/>
       <c r="S30" s="87"/>
@@ -28284,7 +28378,7 @@
       <c r="M31" s="101"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
-      <c r="P31" s="193"/>
+      <c r="P31" s="195"/>
       <c r="Q31" s="101"/>
       <c r="R31" s="85"/>
       <c r="S31" s="87"/>
@@ -28956,8 +29050,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I14" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D32" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29647,23 +29741,23 @@
       <c r="E26" s="67"/>
       <c r="F26" s="67"/>
       <c r="G26" s="68"/>
-      <c r="H26" s="197" t="s">
+      <c r="H26" s="199" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="68"/>
-      <c r="J26" s="195" t="s">
+      <c r="J26" s="197" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="68"/>
-      <c r="L26" s="198" t="s">
+      <c r="L26" s="200" t="s">
         <v>22</v>
       </c>
       <c r="M26" s="87"/>
-      <c r="N26" s="195" t="s">
+      <c r="N26" s="197" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="67"/>
-      <c r="P26" s="195" t="s">
+      <c r="P26" s="197" t="s">
         <v>24</v>
       </c>
       <c r="Q26" s="68"/>
@@ -29755,7 +29849,7 @@
       <c r="M30" s="132"/>
       <c r="N30" s="131"/>
       <c r="O30" s="132"/>
-      <c r="P30" s="196"/>
+      <c r="P30" s="198"/>
       <c r="Q30" s="132"/>
       <c r="R30" s="85"/>
       <c r="S30" s="87"/>
@@ -30457,8 +30551,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I11" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="I24" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31894,7 +31988,7 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B22" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="J30" sqref="J30:K30"/>
     </sheetView>
   </sheetViews>
@@ -32848,7 +32942,7 @@
       <c r="N35" s="100"/>
       <c r="O35" s="101"/>
       <c r="P35" s="107" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q35" s="143"/>
       <c r="R35" s="85"/>
@@ -32894,7 +32988,7 @@
       <c r="F37" s="86"/>
       <c r="G37" s="87"/>
       <c r="H37" s="107" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I37" s="108"/>
       <c r="J37" s="107" t="s">
@@ -32926,7 +33020,7 @@
       <c r="F38" s="86"/>
       <c r="G38" s="87"/>
       <c r="H38" s="107" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I38" s="108"/>
       <c r="J38" s="107" t="s">
@@ -32956,7 +33050,7 @@
       <c r="F39" s="86"/>
       <c r="G39" s="87"/>
       <c r="H39" s="107" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I39" s="108"/>
       <c r="J39" s="100"/>
@@ -33701,11 +33795,11 @@
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
       <c r="G14" s="95"/>
-      <c r="H14" s="203" t="s">
+      <c r="H14" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="204"/>
-      <c r="J14" s="204"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
       <c r="K14" s="108"/>
       <c r="L14" s="9" t="s">
         <v>11</v>
@@ -33731,12 +33825,12 @@
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
       <c r="G15" s="96"/>
-      <c r="H15" s="199" t="s">
+      <c r="H15" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="162"/>
       <c r="L15" s="11" t="str">
         <f t="array" ref="L15">INDEX(z_3_Materias!B2:B508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
         <v>20LDDPA018</v>
@@ -33773,7 +33867,7 @@
       </c>
       <c r="I16" s="151"/>
       <c r="J16" s="151"/>
-      <c r="K16" s="202"/>
+      <c r="K16" s="201"/>
       <c r="L16" s="14" t="str">
         <f t="array" ref="L16">INDEX(z_3_Materias!B2:B508, MATCH(H16, z_3_Materias!A2:A508, 0))</f>
         <v>20IRIC012</v>
@@ -33807,7 +33901,7 @@
       </c>
       <c r="I17" s="151"/>
       <c r="J17" s="151"/>
-      <c r="K17" s="202"/>
+      <c r="K17" s="201"/>
       <c r="L17" s="14" t="str">
         <f t="array" ref="L17">INDEX(z_3_Materias!B2:B508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
         <v>20LDDPA018</v>
@@ -33841,7 +33935,7 @@
       </c>
       <c r="I18" s="151"/>
       <c r="J18" s="151"/>
-      <c r="K18" s="202"/>
+      <c r="K18" s="201"/>
       <c r="L18" s="14" t="str">
         <f t="array" ref="L18">INDEX(z_3_Materias!B2:B508, MATCH(H18, z_3_Materias!A2:A508, 0))</f>
         <v>20LDDPA018</v>
@@ -34141,7 +34235,7 @@
       <c r="P28" s="85"/>
       <c r="Q28" s="87"/>
       <c r="R28" s="107" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="S28" s="108"/>
     </row>
@@ -34165,7 +34259,7 @@
       <c r="P29" s="100"/>
       <c r="Q29" s="101"/>
       <c r="R29" s="107" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S29" s="108"/>
     </row>
@@ -34189,7 +34283,7 @@
       <c r="P30" s="100"/>
       <c r="Q30" s="101"/>
       <c r="R30" s="107" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S30" s="108"/>
     </row>
@@ -34213,7 +34307,7 @@
       <c r="P31" s="100"/>
       <c r="Q31" s="101"/>
       <c r="R31" s="107" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="S31" s="108"/>
     </row>
@@ -34237,7 +34331,7 @@
       <c r="P32" s="100"/>
       <c r="Q32" s="101"/>
       <c r="R32" s="107" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S32" s="108"/>
     </row>
@@ -34341,11 +34435,11 @@
       <c r="H37" s="100"/>
       <c r="I37" s="101"/>
       <c r="J37" s="139" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K37" s="140"/>
       <c r="L37" s="139" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M37" s="140"/>
       <c r="N37" s="100"/>
@@ -34367,11 +34461,11 @@
       <c r="H38" s="100"/>
       <c r="I38" s="101"/>
       <c r="J38" s="139" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K38" s="140"/>
       <c r="L38" s="139" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M38" s="140"/>
       <c r="N38" s="100"/>
@@ -34827,8 +34921,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I11" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="G28" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35167,20 +35261,22 @@
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
       <c r="G15" s="96"/>
-      <c r="H15" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="11">
+      <c r="H15" s="77" t="s">
+        <v>591</v>
+      </c>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="11" t="str">
         <f t="array" ref="L15">INDEX(z_3_Materias!B2:B508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="12"/>
+        <v>24DAD017</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>659</v>
+      </c>
       <c r="N15" s="80">
         <f t="array" ref="N15">INDEX(z_3_Materias!D2:D508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O15" s="75"/>
       <c r="P15" s="75"/>
@@ -35192,7 +35288,7 @@
       <c r="S15" s="70"/>
       <c r="T15" s="13" t="str">
         <f t="shared" ref="T15:T23" si="0">H15&amp;" "&amp;M15</f>
-        <v xml:space="preserve">  </v>
+        <v>Prototipos y Software 3D** DAD306</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -35203,21 +35299,21 @@
       <c r="F16" s="63"/>
       <c r="G16" s="96"/>
       <c r="H16" s="77" t="s">
-        <v>48</v>
+        <v>591</v>
       </c>
       <c r="I16" s="78"/>
       <c r="J16" s="78"/>
       <c r="K16" s="79"/>
       <c r="L16" s="14" t="str">
         <f t="array" ref="L16">INDEX(z_3_Materias!B2:B508, MATCH(H16, z_3_Materias!A2:A508, 0))</f>
-        <v>18DDA026</v>
+        <v>24DAD017</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="N16" s="81">
         <f t="array" ref="N16">INDEX(z_3_Materias!D2:D508, MATCH(H16, z_3_Materias!A2:A508, 0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16" s="78"/>
       <c r="P16" s="78"/>
@@ -35226,7 +35322,7 @@
       <c r="S16" s="70"/>
       <c r="T16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Animación en 2D DDA401</v>
+        <v>Prototipos y Software 3D** DAD307</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -35237,21 +35333,21 @@
       <c r="F17" s="63"/>
       <c r="G17" s="96"/>
       <c r="H17" s="77" t="s">
-        <v>591</v>
+        <v>48</v>
       </c>
       <c r="I17" s="78"/>
       <c r="J17" s="78"/>
       <c r="K17" s="79"/>
       <c r="L17" s="14" t="str">
         <f t="array" ref="L17">INDEX(z_3_Materias!B2:B508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
-        <v>24DAD017</v>
+        <v>18DDA026</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="N17" s="81">
         <f t="array" ref="N17">INDEX(z_3_Materias!D2:D508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O17" s="78"/>
       <c r="P17" s="78"/>
@@ -35260,7 +35356,7 @@
       <c r="S17" s="70"/>
       <c r="T17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Prototipos y Software 3D** DAD306</v>
+        <v>Animación en 2D DDA401</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -35271,21 +35367,19 @@
       <c r="F18" s="63"/>
       <c r="G18" s="96"/>
       <c r="H18" s="77" t="s">
-        <v>591</v>
+        <v>17</v>
       </c>
       <c r="I18" s="78"/>
       <c r="J18" s="78"/>
       <c r="K18" s="79"/>
-      <c r="L18" s="14" t="str">
+      <c r="L18" s="14">
         <f t="array" ref="L18">INDEX(z_3_Materias!B2:B508, MATCH(H18, z_3_Materias!A2:A508, 0))</f>
-        <v>24DAD017</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15"/>
       <c r="N18" s="81">
         <f t="array" ref="N18">INDEX(z_3_Materias!D2:D508, MATCH(H18, z_3_Materias!A2:A508, 0))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O18" s="78"/>
       <c r="P18" s="78"/>
@@ -35294,7 +35388,7 @@
       <c r="S18" s="70"/>
       <c r="T18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Prototipos y Software 3D** DAD307</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -35608,14 +35702,14 @@
       <c r="E30" s="86"/>
       <c r="F30" s="86"/>
       <c r="G30" s="87"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="101"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="132"/>
       <c r="P30" s="100"/>
       <c r="Q30" s="101"/>
       <c r="R30" s="85"/>
@@ -35638,8 +35732,10 @@
       <c r="M31" s="101"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="101"/>
+      <c r="P31" s="107" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q31" s="108"/>
       <c r="R31" s="85"/>
       <c r="S31" s="87"/>
     </row>
@@ -35656,12 +35752,16 @@
       <c r="I32" s="101"/>
       <c r="J32" s="100"/>
       <c r="K32" s="101"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="101"/>
+      <c r="L32" s="107" t="s">
+        <v>749</v>
+      </c>
+      <c r="M32" s="143"/>
       <c r="N32" s="100"/>
       <c r="O32" s="101"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="101"/>
+      <c r="P32" s="107" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q32" s="108"/>
       <c r="R32" s="85"/>
       <c r="S32" s="87"/>
     </row>
@@ -35674,22 +35774,22 @@
       <c r="E33" s="86"/>
       <c r="F33" s="86"/>
       <c r="G33" s="87"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="107" t="s">
-        <v>750</v>
-      </c>
-      <c r="K33" s="108"/>
+      <c r="H33" s="107" t="s">
+        <v>776</v>
+      </c>
+      <c r="I33" s="108"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="101"/>
       <c r="L33" s="107" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M33" s="108"/>
       <c r="N33" s="107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O33" s="108"/>
       <c r="P33" s="107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q33" s="108"/>
       <c r="R33" s="85"/>
@@ -35704,22 +35804,24 @@
       <c r="E34" s="86"/>
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101"/>
+      <c r="H34" s="107" t="s">
+        <v>776</v>
+      </c>
+      <c r="I34" s="108"/>
       <c r="J34" s="107" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K34" s="108"/>
       <c r="L34" s="107" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M34" s="108"/>
       <c r="N34" s="107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O34" s="108"/>
       <c r="P34" s="107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q34" s="108"/>
       <c r="R34" s="85"/>
@@ -35734,22 +35836,24 @@
       <c r="E35" s="86"/>
       <c r="F35" s="86"/>
       <c r="G35" s="87"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="87"/>
+      <c r="H35" s="107" t="s">
+        <v>776</v>
+      </c>
+      <c r="I35" s="108"/>
       <c r="J35" s="107" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K35" s="108"/>
       <c r="L35" s="107" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M35" s="108"/>
       <c r="N35" s="107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O35" s="108"/>
       <c r="P35" s="107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q35" s="108"/>
       <c r="R35" s="85"/>
@@ -36227,7 +36331,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="H27:H41 P27:P41 J27:J41 R27:R41 N27:N41 L27:L41" xr:uid="{00000000-0002-0000-1B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="P27:P41 H27:H41 L27:L41 R27:R41 N27:N41 J27:J41" xr:uid="{00000000-0002-0000-1B00-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -36264,8 +36368,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I11" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView view="pageBreakPreview" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36686,7 +36790,7 @@
         <v>20LDDPA012</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N17" s="81">
         <f t="array" ref="N17">INDEX(z_3_Materias!D2:D508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
@@ -36699,7 +36803,7 @@
       <c r="S17" s="70"/>
       <c r="T17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Planeación y Organización del Trabajo LDDPA801</v>
+        <v>Planeación y Organización del Trabajo LDDPA802</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -37177,14 +37281,14 @@
       <c r="E36" s="86"/>
       <c r="F36" s="86"/>
       <c r="G36" s="87"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="87"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="132"/>
       <c r="P36" s="85"/>
       <c r="Q36" s="87"/>
       <c r="R36" s="85"/>
@@ -37199,14 +37303,18 @@
       <c r="E37" s="86"/>
       <c r="F37" s="86"/>
       <c r="G37" s="87"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="100" t="s">
-        <v>752</v>
-      </c>
-      <c r="M37" s="101"/>
+      <c r="H37" s="107" t="s">
+        <v>779</v>
+      </c>
+      <c r="I37" s="108"/>
+      <c r="J37" s="107" t="s">
+        <v>779</v>
+      </c>
+      <c r="K37" s="108"/>
+      <c r="L37" s="107" t="s">
+        <v>751</v>
+      </c>
+      <c r="M37" s="108"/>
       <c r="N37" s="100"/>
       <c r="O37" s="101"/>
       <c r="P37" s="85"/>
@@ -37223,14 +37331,18 @@
       <c r="E38" s="86"/>
       <c r="F38" s="86"/>
       <c r="G38" s="87"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="100" t="s">
-        <v>752</v>
-      </c>
-      <c r="M38" s="101"/>
+      <c r="H38" s="107" t="s">
+        <v>779</v>
+      </c>
+      <c r="I38" s="108"/>
+      <c r="J38" s="107" t="s">
+        <v>780</v>
+      </c>
+      <c r="K38" s="108"/>
+      <c r="L38" s="107" t="s">
+        <v>751</v>
+      </c>
+      <c r="M38" s="108"/>
       <c r="N38" s="100"/>
       <c r="O38" s="101"/>
       <c r="P38" s="85"/>
@@ -37247,10 +37359,14 @@
       <c r="E39" s="86"/>
       <c r="F39" s="86"/>
       <c r="G39" s="87"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="101"/>
+      <c r="H39" s="107" t="s">
+        <v>780</v>
+      </c>
+      <c r="I39" s="108"/>
+      <c r="J39" s="107" t="s">
+        <v>780</v>
+      </c>
+      <c r="K39" s="108"/>
       <c r="L39" s="100"/>
       <c r="M39" s="101"/>
       <c r="N39" s="100"/>
@@ -37644,7 +37760,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="N27:N41 J27:J41 H27:H41 R27:R41 P27:P41 L27:L41" xr:uid="{00000000-0002-0000-1C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="N27:N41 H27:H41 L27:L41 R27:R41 P27:P41 J27:J41" xr:uid="{00000000-0002-0000-1C00-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -37681,8 +37797,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I11" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D29" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39145,7 +39261,7 @@
   <dimension ref="B1:T51"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="I33" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+      <selection activeCell="H37" sqref="H37:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39860,7 +39976,7 @@
       <c r="F27" s="86"/>
       <c r="G27" s="87"/>
       <c r="H27" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I27" s="103"/>
       <c r="J27" s="85"/>
@@ -39872,7 +39988,7 @@
       <c r="P27" s="85"/>
       <c r="Q27" s="87"/>
       <c r="R27" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S27" s="103"/>
     </row>
@@ -39886,7 +40002,7 @@
       <c r="F28" s="86"/>
       <c r="G28" s="87"/>
       <c r="H28" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I28" s="103"/>
       <c r="J28" s="85"/>
@@ -39898,7 +40014,7 @@
       <c r="P28" s="85"/>
       <c r="Q28" s="87"/>
       <c r="R28" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S28" s="103"/>
     </row>
@@ -39912,7 +40028,7 @@
       <c r="F29" s="86"/>
       <c r="G29" s="87"/>
       <c r="H29" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I29" s="103"/>
       <c r="J29" s="85"/>
@@ -39924,7 +40040,7 @@
       <c r="P29" s="85"/>
       <c r="Q29" s="87"/>
       <c r="R29" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S29" s="103"/>
     </row>
@@ -40014,7 +40130,7 @@
       <c r="P33" s="85"/>
       <c r="Q33" s="87"/>
       <c r="R33" s="107" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S33" s="108"/>
     </row>
@@ -40038,7 +40154,7 @@
       <c r="P34" s="85"/>
       <c r="Q34" s="87"/>
       <c r="R34" s="107" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S34" s="108"/>
     </row>
@@ -40075,10 +40191,14 @@
       <c r="G36" s="87"/>
       <c r="H36" s="85"/>
       <c r="I36" s="87"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="87"/>
+      <c r="J36" s="218" t="s">
+        <v>784</v>
+      </c>
+      <c r="K36" s="140"/>
+      <c r="L36" s="218" t="s">
+        <v>784</v>
+      </c>
+      <c r="M36" s="140"/>
       <c r="N36" s="85"/>
       <c r="O36" s="87"/>
       <c r="P36" s="100"/>
@@ -40102,7 +40222,7 @@
       <c r="L37" s="85"/>
       <c r="M37" s="87"/>
       <c r="N37" s="139" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O37" s="140"/>
       <c r="P37" s="100"/>
@@ -40126,7 +40246,7 @@
       <c r="L38" s="85"/>
       <c r="M38" s="87"/>
       <c r="N38" s="139" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="O38" s="140"/>
       <c r="P38" s="100"/>
@@ -40151,8 +40271,10 @@
       <c r="M39" s="87"/>
       <c r="N39" s="100"/>
       <c r="O39" s="101"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="101"/>
+      <c r="P39" s="107" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q39" s="108"/>
       <c r="R39" s="85"/>
       <c r="S39" s="87"/>
     </row>
@@ -40173,8 +40295,10 @@
       <c r="M40" s="87"/>
       <c r="N40" s="100"/>
       <c r="O40" s="101"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="101"/>
+      <c r="P40" s="107" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q40" s="108"/>
       <c r="R40" s="85"/>
       <c r="S40" s="87"/>
     </row>
@@ -40540,7 +40664,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="H27:H41 J27:J41 L27:L41 R27:R41 P27:P41 N27:N41" xr:uid="{00000000-0002-0000-1D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="H27:H41 J27:J41 P27:P41 R27:R41 N27:N41 L27:L41" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -40928,7 +41052,7 @@
         <v>20LDDPA001</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="N15" s="80">
         <f t="array" ref="N15">INDEX(z_3_Materias!D2:D508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
@@ -41443,7 +41567,7 @@
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
       <c r="H34" s="107" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I34" s="108"/>
       <c r="J34" s="100"/>
@@ -41453,7 +41577,7 @@
       <c r="N34" s="100"/>
       <c r="O34" s="101"/>
       <c r="P34" s="107" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Q34" s="108"/>
       <c r="R34" s="85"/>
@@ -41469,7 +41593,7 @@
       <c r="F35" s="86"/>
       <c r="G35" s="87"/>
       <c r="H35" s="107" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I35" s="108"/>
       <c r="J35" s="100"/>
@@ -41694,27 +41818,27 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="191" t="s">
+      <c r="C46" s="193" t="s">
         <v>521</v>
       </c>
-      <c r="D46" s="191"/>
-      <c r="E46" s="191"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="191"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="191"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="193"/>
+      <c r="G46" s="193"/>
+      <c r="H46" s="193"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="193"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="191" t="str">
+      <c r="N46" s="193" t="str">
         <f>B10</f>
         <v>VARELA OLMOS VIOLETA</v>
       </c>
-      <c r="O46" s="205"/>
-      <c r="P46" s="205"/>
-      <c r="Q46" s="205"/>
-      <c r="R46" s="205"/>
+      <c r="O46" s="204"/>
+      <c r="P46" s="204"/>
+      <c r="Q46" s="204"/>
+      <c r="R46" s="204"/>
       <c r="S46" s="25"/>
     </row>
     <row r="47" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -41731,13 +41855,13 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="206" t="s">
+      <c r="N47" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="O47" s="173"/>
-      <c r="P47" s="173"/>
-      <c r="Q47" s="173"/>
-      <c r="R47" s="173"/>
+      <c r="O47" s="176"/>
+      <c r="P47" s="176"/>
+      <c r="Q47" s="176"/>
+      <c r="R47" s="176"/>
       <c r="S47" s="26"/>
     </row>
     <row r="48" spans="2:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -41773,14 +41897,14 @@
       <c r="J50" s="123"/>
     </row>
     <row r="51" spans="3:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="191"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="191"/>
-      <c r="F51" s="191"/>
-      <c r="G51" s="191"/>
-      <c r="H51" s="191"/>
-      <c r="I51" s="191"/>
-      <c r="J51" s="191"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="193"/>
     </row>
     <row r="52" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="123" t="s">
@@ -42007,7 +42131,7 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H15" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="L33" sqref="L33:M33"/>
     </sheetView>
   </sheetViews>
@@ -42347,18 +42471,18 @@
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
       <c r="G15" s="96"/>
-      <c r="H15" s="199" t="s">
+      <c r="H15" s="160" t="s">
         <v>590</v>
       </c>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="162"/>
       <c r="L15" s="11" t="str">
         <f t="array" ref="L15">INDEX(z_3_Materias!B2:B508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
         <v>24CD016</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N15" s="80">
         <f t="array" ref="N15">INDEX(z_3_Materias!D2:D508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
@@ -42369,7 +42493,7 @@
       <c r="Q15" s="76"/>
       <c r="R15" s="110">
         <f>SUM(N15:Q23)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S15" s="70"/>
       <c r="T15" s="13" t="str">
@@ -42384,22 +42508,22 @@
       <c r="E16" s="63"/>
       <c r="F16" s="63"/>
       <c r="G16" s="96"/>
-      <c r="H16" s="199" t="s">
-        <v>381</v>
-      </c>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="201"/>
+      <c r="H16" s="209" t="s">
+        <v>590</v>
+      </c>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="162"/>
       <c r="L16" s="14" t="str">
         <f t="array" ref="L16">INDEX(z_3_Materias!B2:B508, MATCH(H16, z_3_Materias!A2:A508, 0))</f>
-        <v>18DDA033</v>
+        <v>24CD016</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="N16" s="81">
         <f t="array" ref="N16">INDEX(z_3_Materias!D2:D508, MATCH(H16, z_3_Materias!A2:A508, 0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" s="78"/>
       <c r="P16" s="78"/>
@@ -42408,7 +42532,7 @@
       <c r="S16" s="70"/>
       <c r="T16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Formación Sociocultural IV DDA401</v>
+        <v>Desarrollo del Pensamiento y Toma de Decisiones** DAD307</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -42418,22 +42542,22 @@
       <c r="E17" s="63"/>
       <c r="F17" s="63"/>
       <c r="G17" s="96"/>
-      <c r="H17" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="129"/>
+      <c r="H17" s="160" t="s">
+        <v>381</v>
+      </c>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="162"/>
       <c r="L17" s="14" t="str">
         <f t="array" ref="L17">INDEX(z_3_Materias!B2:B508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
-        <v>18DDA039</v>
+        <v>18DDA033</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="N17" s="81">
         <f t="array" ref="N17">INDEX(z_3_Materias!D2:D508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O17" s="78"/>
       <c r="P17" s="78"/>
@@ -42442,7 +42566,7 @@
       <c r="S17" s="70"/>
       <c r="T17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Expresión Oral y Escrita II_ DDA501</v>
+        <v>Formación Sociocultural IV DDA401</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -42452,22 +42576,22 @@
       <c r="E18" s="63"/>
       <c r="F18" s="63"/>
       <c r="G18" s="96"/>
-      <c r="H18" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="138"/>
+      <c r="H18" s="160" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="162"/>
       <c r="L18" s="14" t="str">
         <f t="array" ref="L18">INDEX(z_3_Materias!B2:B508, MATCH(H18, z_3_Materias!A2:A508, 0))</f>
-        <v>20LDDPA007</v>
+        <v>18DDA039</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="N18" s="81">
         <f t="array" ref="N18">INDEX(z_3_Materias!D2:D508, MATCH(H18, z_3_Materias!A2:A508, 0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O18" s="78"/>
       <c r="P18" s="78"/>
@@ -42476,7 +42600,7 @@
       <c r="S18" s="70"/>
       <c r="T18" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Administración del Tiempo LDDPA701</v>
+        <v>Expresión Oral y Escrita II_ DDA501</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -42486,20 +42610,22 @@
       <c r="E19" s="63"/>
       <c r="F19" s="63"/>
       <c r="G19" s="96"/>
-      <c r="H19" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="14">
+      <c r="H19" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="14" t="str">
         <f t="array" ref="L19">INDEX(z_3_Materias!B2:B508, MATCH(H19, z_3_Materias!A2:A508, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="12"/>
+        <v>20LDDPA007</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>660</v>
+      </c>
       <c r="N19" s="81">
         <f t="array" ref="N19">INDEX(z_3_Materias!D2:D508, MATCH(H19, z_3_Materias!A2:A508, 0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" s="78"/>
       <c r="P19" s="78"/>
@@ -42508,7 +42634,7 @@
       <c r="S19" s="70"/>
       <c r="T19" s="13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>Administración del Tiempo LDDPA701</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -42748,8 +42874,10 @@
       <c r="G28" s="87"/>
       <c r="H28" s="100"/>
       <c r="I28" s="101"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101"/>
+      <c r="J28" s="107" t="s">
+        <v>720</v>
+      </c>
+      <c r="K28" s="108"/>
       <c r="L28" s="100"/>
       <c r="M28" s="101"/>
       <c r="N28" s="107" t="s">
@@ -42774,8 +42902,10 @@
       <c r="G29" s="87"/>
       <c r="H29" s="100"/>
       <c r="I29" s="101"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
+      <c r="J29" s="107" t="s">
+        <v>720</v>
+      </c>
+      <c r="K29" s="108"/>
       <c r="L29" s="100"/>
       <c r="M29" s="101"/>
       <c r="N29" s="107" t="s">
@@ -42823,21 +42953,19 @@
       <c r="F31" s="86"/>
       <c r="G31" s="87"/>
       <c r="H31" s="107" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I31" s="108"/>
       <c r="J31" s="100"/>
       <c r="K31" s="101"/>
       <c r="L31" s="107" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M31" s="108"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
-      <c r="P31" s="107" t="s">
-        <v>720</v>
-      </c>
-      <c r="Q31" s="108"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
       <c r="R31" s="85"/>
       <c r="S31" s="87"/>
     </row>
@@ -42851,19 +42979,23 @@
       <c r="F32" s="86"/>
       <c r="G32" s="87"/>
       <c r="H32" s="107" t="s">
+        <v>772</v>
+      </c>
+      <c r="I32" s="108"/>
+      <c r="J32" s="107" t="s">
         <v>773</v>
       </c>
-      <c r="I32" s="108"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="101"/>
+      <c r="K32" s="108"/>
       <c r="L32" s="107" t="s">
+        <v>772</v>
+      </c>
+      <c r="M32" s="108"/>
+      <c r="N32" s="107" t="s">
         <v>773</v>
       </c>
-      <c r="M32" s="108"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="101"/>
+      <c r="O32" s="108"/>
       <c r="P32" s="107" t="s">
-        <v>720</v>
+        <v>773</v>
       </c>
       <c r="Q32" s="108"/>
       <c r="R32" s="85"/>
@@ -42879,19 +43011,23 @@
       <c r="F33" s="86"/>
       <c r="G33" s="87"/>
       <c r="H33" s="107" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="I33" s="108"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="101"/>
+      <c r="J33" s="107" t="s">
+        <v>773</v>
+      </c>
+      <c r="K33" s="108"/>
       <c r="L33" s="107" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M33" s="108"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="101"/>
+      <c r="N33" s="107" t="s">
+        <v>778</v>
+      </c>
+      <c r="O33" s="108"/>
       <c r="P33" s="107" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q33" s="108"/>
       <c r="R33" s="85"/>
@@ -42907,23 +43043,23 @@
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
       <c r="H34" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I34" s="159"/>
       <c r="J34" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K34" s="159"/>
       <c r="L34" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M34" s="159"/>
       <c r="N34" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O34" s="159"/>
       <c r="P34" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q34" s="159"/>
       <c r="R34" s="85"/>
@@ -42939,23 +43075,23 @@
       <c r="F35" s="86"/>
       <c r="G35" s="87"/>
       <c r="H35" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I35" s="159"/>
       <c r="J35" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K35" s="159"/>
       <c r="L35" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M35" s="159"/>
       <c r="N35" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O35" s="159"/>
       <c r="P35" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q35" s="159"/>
       <c r="R35" s="85"/>
@@ -42971,23 +43107,23 @@
       <c r="F36" s="86"/>
       <c r="G36" s="87"/>
       <c r="H36" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I36" s="159"/>
       <c r="J36" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K36" s="159"/>
       <c r="L36" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M36" s="159"/>
       <c r="N36" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O36" s="159"/>
       <c r="P36" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q36" s="159"/>
       <c r="R36" s="85"/>
@@ -43003,23 +43139,23 @@
       <c r="F37" s="86"/>
       <c r="G37" s="87"/>
       <c r="H37" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I37" s="159"/>
       <c r="J37" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K37" s="159"/>
       <c r="L37" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M37" s="159"/>
       <c r="N37" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O37" s="159"/>
       <c r="P37" s="131" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q37" s="159"/>
       <c r="R37" s="85"/>
@@ -43463,7 +43599,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="R27:R41 J27:J41 H27:H41 P27:P41 L27:L41 N27:N41" xr:uid="{00000000-0002-0000-1F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="R27:R41 N27:N41 L27:L41 J27:J41 H27:H41 P27:P41" xr:uid="{00000000-0002-0000-1F00-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -44232,7 +44368,7 @@
       <c r="P27" s="133"/>
       <c r="Q27" s="134"/>
       <c r="R27" s="107" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="S27" s="108"/>
     </row>
@@ -44258,7 +44394,7 @@
       <c r="P28" s="133"/>
       <c r="Q28" s="134"/>
       <c r="R28" s="107" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="S28" s="108"/>
     </row>
@@ -45271,7 +45407,7 @@
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
       <c r="G14" s="95"/>
-      <c r="H14" s="207" t="s">
+      <c r="H14" s="206" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="67"/>
@@ -45319,7 +45455,7 @@
       <c r="O15" s="145"/>
       <c r="P15" s="145"/>
       <c r="Q15" s="146"/>
-      <c r="R15" s="208">
+      <c r="R15" s="207">
         <f>SUM(N15:Q23)</f>
         <v>0</v>
       </c>
@@ -52171,8 +52307,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I28" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -52901,7 +53037,7 @@
       <c r="P27" s="85"/>
       <c r="Q27" s="87"/>
       <c r="R27" s="135" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S27" s="136"/>
     </row>
@@ -52925,7 +53061,7 @@
       <c r="P28" s="85"/>
       <c r="Q28" s="87"/>
       <c r="R28" s="135" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S28" s="136"/>
     </row>
@@ -52949,7 +53085,7 @@
       <c r="P29" s="85"/>
       <c r="Q29" s="87"/>
       <c r="R29" s="135" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="S29" s="136"/>
     </row>
@@ -52973,7 +53109,7 @@
       <c r="P30" s="131"/>
       <c r="Q30" s="132"/>
       <c r="R30" s="135" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S30" s="136"/>
     </row>
@@ -52997,7 +53133,7 @@
       <c r="P31" s="85"/>
       <c r="Q31" s="87"/>
       <c r="R31" s="135" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S31" s="136"/>
     </row>
@@ -53021,7 +53157,7 @@
       <c r="P32" s="85"/>
       <c r="Q32" s="87"/>
       <c r="R32" s="135" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S32" s="136"/>
     </row>
@@ -53039,15 +53175,15 @@
       <c r="J33" s="85"/>
       <c r="K33" s="87"/>
       <c r="L33" s="107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M33" s="108"/>
       <c r="N33" s="107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O33" s="108"/>
       <c r="P33" s="107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Q33" s="108"/>
       <c r="R33" s="85"/>
@@ -53067,15 +53203,15 @@
       <c r="J34" s="85"/>
       <c r="K34" s="87"/>
       <c r="L34" s="107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M34" s="108"/>
       <c r="N34" s="107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O34" s="108"/>
       <c r="P34" s="107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Q34" s="108"/>
       <c r="R34" s="85"/>
@@ -53090,18 +53226,16 @@
       <c r="E35" s="86"/>
       <c r="F35" s="86"/>
       <c r="G35" s="87"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="132"/>
-      <c r="P35" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q35" s="134"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="217"/>
+      <c r="J35" s="216"/>
+      <c r="K35" s="217"/>
+      <c r="L35" s="216"/>
+      <c r="M35" s="217"/>
+      <c r="N35" s="216"/>
+      <c r="O35" s="217"/>
+      <c r="P35" s="216"/>
+      <c r="Q35" s="217"/>
       <c r="R35" s="85"/>
       <c r="S35" s="87"/>
     </row>
@@ -53114,22 +53248,18 @@
       <c r="E36" s="86"/>
       <c r="F36" s="86"/>
       <c r="G36" s="87"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="M36" s="134"/>
-      <c r="N36" s="133" t="s">
+      <c r="H36" s="131"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="132"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="132"/>
+      <c r="P36" s="107" t="s">
         <v>767</v>
       </c>
-      <c r="O36" s="134"/>
-      <c r="P36" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q36" s="134"/>
+      <c r="Q36" s="108"/>
       <c r="R36" s="85"/>
       <c r="S36" s="87"/>
     </row>
@@ -53146,16 +53276,18 @@
       <c r="I37" s="87"/>
       <c r="J37" s="85"/>
       <c r="K37" s="87"/>
-      <c r="L37" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="M37" s="134"/>
-      <c r="N37" s="133" t="s">
+      <c r="L37" s="107" t="s">
         <v>767</v>
       </c>
-      <c r="O37" s="134"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="101"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="107" t="s">
+        <v>766</v>
+      </c>
+      <c r="O37" s="108"/>
+      <c r="P37" s="107" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q37" s="108"/>
       <c r="R37" s="85"/>
       <c r="S37" s="87"/>
     </row>
@@ -53172,14 +53304,18 @@
       <c r="I38" s="87"/>
       <c r="J38" s="85"/>
       <c r="K38" s="87"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="133" t="s">
+      <c r="L38" s="107" t="s">
         <v>767</v>
       </c>
-      <c r="Q38" s="134"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="107" t="s">
+        <v>766</v>
+      </c>
+      <c r="O38" s="108"/>
+      <c r="P38" s="107" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q38" s="108"/>
       <c r="R38" s="85"/>
       <c r="S38" s="87"/>
     </row>
@@ -53200,10 +53336,10 @@
       <c r="M39" s="87"/>
       <c r="N39" s="85"/>
       <c r="O39" s="87"/>
-      <c r="P39" s="133" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q39" s="134"/>
+      <c r="P39" s="107" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q39" s="108"/>
       <c r="R39" s="85"/>
       <c r="S39" s="87"/>
     </row>
@@ -53591,7 +53727,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="R27:R41 H27:H41 J27:J41 L27:L41 N27:N41 P27:P41" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="R27:R41 H27:H41 J27:J41 N27:N41 P27:P41 L27:L41" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -54562,7 +54698,7 @@
       <c r="H37" s="85"/>
       <c r="I37" s="87"/>
       <c r="J37" s="139" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K37" s="140"/>
       <c r="L37" s="85"/>
@@ -54586,7 +54722,7 @@
       <c r="H38" s="85"/>
       <c r="I38" s="87"/>
       <c r="J38" s="139" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K38" s="140"/>
       <c r="L38" s="85"/>
@@ -55045,8 +55181,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="H29" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C29" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -55385,22 +55521,22 @@
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
       <c r="G15" s="96"/>
-      <c r="H15" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
+      <c r="H15" s="77" t="s">
+        <v>591</v>
+      </c>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="79"/>
       <c r="L15" s="11" t="str">
         <f t="array" ref="L15">INDEX(z_3_Materias!B2:B508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
-        <v>18DDA025</v>
+        <v>24DAD017</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="N15" s="80">
         <f t="array" ref="N15">INDEX(z_3_Materias!D2:D508, MATCH(H15, z_3_Materias!A2:A508, 0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O15" s="75"/>
       <c r="P15" s="75"/>
@@ -55412,7 +55548,7 @@
       <c r="S15" s="70"/>
       <c r="T15" s="13" t="str">
         <f t="shared" ref="T15:T23" si="0">H15&amp;" "&amp;M15</f>
-        <v>Física DDA401</v>
+        <v>Prototipos y Software 3D** DAD308</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -55433,7 +55569,7 @@
         <v>24DAD017</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="N16" s="81">
         <f t="array" ref="N16">INDEX(z_3_Materias!D2:D508, MATCH(H16, z_3_Materias!A2:A508, 0))</f>
@@ -55446,7 +55582,7 @@
       <c r="S16" s="70"/>
       <c r="T16" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Prototipos y Software 3D** DAD308</v>
+        <v>Prototipos y Software 3D** DAD309</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -55456,22 +55592,22 @@
       <c r="E17" s="63"/>
       <c r="F17" s="63"/>
       <c r="G17" s="96"/>
-      <c r="H17" s="77" t="s">
-        <v>591</v>
-      </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
+      <c r="H17" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="76"/>
       <c r="L17" s="14" t="str">
         <f t="array" ref="L17">INDEX(z_3_Materias!B2:B508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
-        <v>24DAD017</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>667</v>
+        <v>18DDA025</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>685</v>
       </c>
       <c r="N17" s="81">
         <f t="array" ref="N17">INDEX(z_3_Materias!D2:D508, MATCH(H17, z_3_Materias!A2:A508, 0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O17" s="78"/>
       <c r="P17" s="78"/>
@@ -55480,7 +55616,7 @@
       <c r="S17" s="70"/>
       <c r="T17" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Prototipos y Software 3D** DAD309</v>
+        <v>Física DDA401</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -55784,12 +55920,16 @@
       <c r="G28" s="87"/>
       <c r="H28" s="100"/>
       <c r="I28" s="101"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="100"/>
+      <c r="J28" s="208" t="s">
+        <v>777</v>
+      </c>
+      <c r="K28" s="108"/>
+      <c r="L28" s="190"/>
       <c r="M28" s="101"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="101"/>
+      <c r="N28" s="208" t="s">
+        <v>777</v>
+      </c>
+      <c r="O28" s="108"/>
       <c r="P28" s="100"/>
       <c r="Q28" s="101"/>
       <c r="R28" s="85"/>
@@ -55806,12 +55946,16 @@
       <c r="G29" s="87"/>
       <c r="H29" s="100"/>
       <c r="I29" s="101"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="100"/>
+      <c r="J29" s="208" t="s">
+        <v>777</v>
+      </c>
+      <c r="K29" s="108"/>
+      <c r="L29" s="190"/>
       <c r="M29" s="101"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="101"/>
+      <c r="N29" s="208" t="s">
+        <v>777</v>
+      </c>
+      <c r="O29" s="108"/>
       <c r="P29" s="100"/>
       <c r="Q29" s="101"/>
       <c r="R29" s="85"/>
@@ -55826,14 +55970,14 @@
       <c r="E30" s="86"/>
       <c r="F30" s="86"/>
       <c r="G30" s="87"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="101"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="132"/>
       <c r="P30" s="141"/>
       <c r="Q30" s="101"/>
       <c r="R30" s="85"/>
@@ -55872,16 +56016,16 @@
       <c r="G32" s="87"/>
       <c r="H32" s="100"/>
       <c r="I32" s="101"/>
-      <c r="J32" s="107" t="s">
-        <v>751</v>
+      <c r="J32" s="208" t="s">
+        <v>750</v>
       </c>
       <c r="K32" s="108"/>
-      <c r="L32" s="100"/>
+      <c r="L32" s="190"/>
       <c r="M32" s="101"/>
-      <c r="N32" s="107" t="s">
+      <c r="N32" s="208" t="s">
         <v>591</v>
       </c>
-      <c r="O32" s="143"/>
+      <c r="O32" s="211"/>
       <c r="P32" s="100"/>
       <c r="Q32" s="142"/>
       <c r="R32" s="85"/>
@@ -55898,13 +56042,13 @@
       <c r="G33" s="87"/>
       <c r="H33" s="100"/>
       <c r="I33" s="101"/>
-      <c r="J33" s="107" t="s">
-        <v>751</v>
+      <c r="J33" s="208" t="s">
+        <v>750</v>
       </c>
       <c r="K33" s="108"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="107" t="s">
+      <c r="L33" s="190"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="208" t="s">
         <v>591</v>
       </c>
       <c r="O33" s="108"/>
@@ -55924,13 +56068,13 @@
       <c r="G34" s="87"/>
       <c r="H34" s="100"/>
       <c r="I34" s="101"/>
-      <c r="J34" s="107" t="s">
-        <v>751</v>
+      <c r="J34" s="208" t="s">
+        <v>750</v>
       </c>
       <c r="K34" s="108"/>
-      <c r="L34" s="100"/>
+      <c r="L34" s="190"/>
       <c r="M34" s="101"/>
-      <c r="N34" s="107" t="s">
+      <c r="N34" s="208" t="s">
         <v>591</v>
       </c>
       <c r="O34" s="108"/>
@@ -55949,12 +56093,12 @@
       <c r="F35" s="86"/>
       <c r="G35" s="87"/>
       <c r="H35" s="100"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="100"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="190"/>
       <c r="K35" s="101"/>
-      <c r="L35" s="100"/>
+      <c r="L35" s="190"/>
       <c r="M35" s="101"/>
-      <c r="N35" s="100"/>
+      <c r="N35" s="190"/>
       <c r="O35" s="101"/>
       <c r="P35" s="100"/>
       <c r="Q35" s="101"/>
@@ -55972,11 +56116,11 @@
       <c r="G36" s="87"/>
       <c r="H36" s="131"/>
       <c r="I36" s="132"/>
-      <c r="J36" s="131"/>
+      <c r="J36" s="215"/>
       <c r="K36" s="132"/>
-      <c r="L36" s="131"/>
+      <c r="L36" s="215"/>
       <c r="M36" s="132"/>
-      <c r="N36" s="131"/>
+      <c r="N36" s="215"/>
       <c r="O36" s="132"/>
       <c r="P36" s="131"/>
       <c r="Q36" s="132"/>
@@ -55994,12 +56138,16 @@
       <c r="G37" s="87"/>
       <c r="H37" s="100"/>
       <c r="I37" s="101"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="100"/>
+      <c r="J37" s="208" t="s">
+        <v>774</v>
+      </c>
+      <c r="K37" s="108"/>
+      <c r="L37" s="190"/>
       <c r="M37" s="101"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="101"/>
+      <c r="N37" s="208" t="s">
+        <v>774</v>
+      </c>
+      <c r="O37" s="108"/>
       <c r="P37" s="100"/>
       <c r="Q37" s="101"/>
       <c r="R37" s="85"/>
@@ -56016,12 +56164,16 @@
       <c r="G38" s="87"/>
       <c r="H38" s="100"/>
       <c r="I38" s="101"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="100"/>
+      <c r="J38" s="208" t="s">
+        <v>774</v>
+      </c>
+      <c r="K38" s="108"/>
+      <c r="L38" s="190"/>
       <c r="M38" s="101"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="101"/>
+      <c r="N38" s="208" t="s">
+        <v>774</v>
+      </c>
+      <c r="O38" s="108"/>
       <c r="P38" s="100"/>
       <c r="Q38" s="101"/>
       <c r="R38" s="85"/>
@@ -56038,12 +56190,16 @@
       <c r="G39" s="87"/>
       <c r="H39" s="85"/>
       <c r="I39" s="87"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="85"/>
+      <c r="J39" s="210" t="s">
+        <v>774</v>
+      </c>
+      <c r="K39" s="134"/>
+      <c r="L39" s="191"/>
       <c r="M39" s="87"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="87"/>
+      <c r="N39" s="210" t="s">
+        <v>774</v>
+      </c>
+      <c r="O39" s="134"/>
       <c r="P39" s="85"/>
       <c r="Q39" s="87"/>
       <c r="R39" s="85"/>
@@ -56433,7 +56589,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="H27:H41 N27:N41 R27:R41 L27:L41 P27:P41 J27:J41" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="L27:L41 J27:J41 R27:R41 H27:H41 P27:P41 N27:N41" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -56470,8 +56626,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D31" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="H32" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -56994,7 +57150,7 @@
         <v>20LDDPA015</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N20" s="81">
         <f t="array" ref="N20">INDEX(z_3_Materias!D2:D508, MATCH(H20, z_3_Materias!A2:A508, 0))</f>
@@ -57324,15 +57480,15 @@
       <c r="F33" s="86"/>
       <c r="G33" s="87"/>
       <c r="H33" s="107" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I33" s="143"/>
-      <c r="J33" s="107" t="s">
-        <v>725</v>
-      </c>
-      <c r="K33" s="143"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="101"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="107" t="s">
+        <v>726</v>
+      </c>
+      <c r="M33" s="143"/>
       <c r="N33" s="107" t="s">
         <v>654</v>
       </c>
@@ -57354,15 +57510,17 @@
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
       <c r="H34" s="107" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I34" s="143"/>
       <c r="J34" s="107" t="s">
         <v>654</v>
       </c>
       <c r="K34" s="108"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="101"/>
+      <c r="L34" s="107" t="s">
+        <v>726</v>
+      </c>
+      <c r="M34" s="143"/>
       <c r="N34" s="107" t="s">
         <v>654</v>
       </c>
@@ -57384,21 +57542,21 @@
       <c r="F35" s="86"/>
       <c r="G35" s="87"/>
       <c r="H35" s="107" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I35" s="143"/>
       <c r="J35" s="100"/>
       <c r="K35" s="101"/>
       <c r="L35" s="107" t="s">
-        <v>726</v>
-      </c>
-      <c r="M35" s="108"/>
+        <v>724</v>
+      </c>
+      <c r="M35" s="143"/>
       <c r="N35" s="107" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O35" s="108"/>
       <c r="P35" s="107" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="Q35" s="108"/>
       <c r="R35" s="85"/>
@@ -57436,17 +57594,15 @@
       <c r="F37" s="86"/>
       <c r="G37" s="87"/>
       <c r="H37" s="107" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I37" s="108"/>
       <c r="J37" s="100"/>
-      <c r="K37" s="142"/>
-      <c r="L37" s="107" t="s">
-        <v>727</v>
-      </c>
-      <c r="M37" s="143"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="101"/>
       <c r="N37" s="107" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O37" s="108"/>
       <c r="P37" s="133"/>
@@ -57464,17 +57620,15 @@
       <c r="F38" s="86"/>
       <c r="G38" s="87"/>
       <c r="H38" s="107" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I38" s="108"/>
       <c r="J38" s="100"/>
-      <c r="K38" s="142"/>
-      <c r="L38" s="107" t="s">
-        <v>727</v>
-      </c>
-      <c r="M38" s="143"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="101"/>
       <c r="N38" s="107" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O38" s="108"/>
       <c r="P38" s="133"/>
@@ -57498,15 +57652,17 @@
       <c r="J39" s="100"/>
       <c r="K39" s="101"/>
       <c r="L39" s="139" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M39" s="140"/>
       <c r="N39" s="139" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O39" s="140"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="101"/>
+      <c r="P39" s="107" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q39" s="108"/>
       <c r="R39" s="85"/>
       <c r="S39" s="87"/>
     </row>
@@ -57530,7 +57686,7 @@
       <c r="N40" s="100"/>
       <c r="O40" s="101"/>
       <c r="P40" s="107" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q40" s="108"/>
       <c r="R40" s="85"/>
@@ -57898,7 +58054,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="P27:P41 J27:J41 H27:H41 L27:L41 R27:R41 N27:N41" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="N27:N41 J27:J41 H27:H41 P27:P41 R27:R41 L27:L41" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>
@@ -57935,8 +58091,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="H26" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32:Q32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="D25" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -58692,10 +58848,8 @@
         <v>713</v>
       </c>
       <c r="M28" s="108"/>
-      <c r="N28" s="107" t="s">
-        <v>631</v>
-      </c>
-      <c r="O28" s="108"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="101"/>
       <c r="P28" s="133"/>
       <c r="Q28" s="134"/>
       <c r="R28" s="85"/>
@@ -58722,10 +58876,8 @@
         <v>713</v>
       </c>
       <c r="M29" s="108"/>
-      <c r="N29" s="107" t="s">
-        <v>631</v>
-      </c>
-      <c r="O29" s="108"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="101"/>
       <c r="P29" s="100"/>
       <c r="Q29" s="101"/>
       <c r="R29" s="85"/>
@@ -58796,10 +58948,14 @@
         <v>710</v>
       </c>
       <c r="K32" s="108"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="101"/>
+      <c r="L32" s="107" t="s">
+        <v>711</v>
+      </c>
+      <c r="M32" s="108"/>
+      <c r="N32" s="107" t="s">
+        <v>711</v>
+      </c>
+      <c r="O32" s="108"/>
       <c r="P32" s="100"/>
       <c r="Q32" s="101"/>
       <c r="R32" s="85"/>
@@ -58814,8 +58970,10 @@
       <c r="E33" s="86"/>
       <c r="F33" s="86"/>
       <c r="G33" s="87"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="101"/>
+      <c r="H33" s="107" t="s">
+        <v>631</v>
+      </c>
+      <c r="I33" s="108"/>
       <c r="J33" s="107" t="s">
         <v>710</v>
       </c>
@@ -58828,10 +58986,8 @@
         <v>711</v>
       </c>
       <c r="O33" s="108"/>
-      <c r="P33" s="107" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q33" s="108"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="101"/>
       <c r="R33" s="85"/>
       <c r="S33" s="87"/>
     </row>
@@ -58844,8 +59000,10 @@
       <c r="E34" s="86"/>
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101"/>
+      <c r="H34" s="107" t="s">
+        <v>631</v>
+      </c>
+      <c r="I34" s="108"/>
       <c r="J34" s="100"/>
       <c r="K34" s="101"/>
       <c r="L34" s="107" t="s">
@@ -58856,10 +59014,8 @@
         <v>711</v>
       </c>
       <c r="O34" s="108"/>
-      <c r="P34" s="107" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q34" s="108"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="101"/>
       <c r="R34" s="85"/>
       <c r="S34" s="87"/>
     </row>
@@ -59357,7 +59513,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="L27:L41 R27:R41 N27:N41 H27:H41 J27:J41 P27:P41" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="L27:L41 R27:R41 H27:H41 P27:P41 J27:J41 N27:N41" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>$T$15:$T$23</formula1>
     </dataValidation>
   </dataValidations>

--- a/cHorPA_Tele_2025-2_080325.xlsx
+++ b/cHorPA_Tele_2025-2_080325.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Diseño, Redes E IA\2025-2\carga2025_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21151F6-7CCD-4884-8CF6-E64B9CB1FB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7B2BD9-B995-404B-B18D-F932A298BB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2256" windowWidth="11496" windowHeight="8976" firstSheet="24" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Completos" sheetId="46" r:id="rId1"/>
@@ -3702,7 +3702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4205,10 +4205,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19617,16 +19613,16 @@
       <c r="E33" s="86"/>
       <c r="F33" s="86"/>
       <c r="G33" s="87"/>
-      <c r="H33" s="218" t="s">
+      <c r="H33" s="85" t="s">
         <v>641</v>
       </c>
-      <c r="I33" s="219"/>
+      <c r="I33" s="87"/>
       <c r="J33" s="85"/>
       <c r="K33" s="87"/>
-      <c r="L33" s="218" t="s">
+      <c r="L33" s="85" t="s">
         <v>641</v>
       </c>
-      <c r="M33" s="219"/>
+      <c r="M33" s="87"/>
       <c r="N33" s="85"/>
       <c r="O33" s="87"/>
       <c r="P33" s="85"/>
@@ -19643,16 +19639,16 @@
       <c r="E34" s="86"/>
       <c r="F34" s="86"/>
       <c r="G34" s="87"/>
-      <c r="H34" s="218" t="s">
+      <c r="H34" s="85" t="s">
         <v>641</v>
       </c>
-      <c r="I34" s="219"/>
+      <c r="I34" s="87"/>
       <c r="J34" s="85"/>
       <c r="K34" s="87"/>
-      <c r="L34" s="218" t="s">
+      <c r="L34" s="85" t="s">
         <v>641</v>
       </c>
-      <c r="M34" s="219"/>
+      <c r="M34" s="87"/>
       <c r="N34" s="85"/>
       <c r="O34" s="87"/>
       <c r="P34" s="85"/>
@@ -19713,16 +19709,16 @@
       <c r="E37" s="86"/>
       <c r="F37" s="86"/>
       <c r="G37" s="87"/>
-      <c r="H37" s="218" t="s">
+      <c r="H37" s="85" t="s">
         <v>765</v>
       </c>
-      <c r="I37" s="219"/>
+      <c r="I37" s="87"/>
       <c r="J37" s="85"/>
       <c r="K37" s="87"/>
-      <c r="L37" s="218" t="s">
+      <c r="L37" s="85" t="s">
         <v>765</v>
       </c>
-      <c r="M37" s="219"/>
+      <c r="M37" s="87"/>
       <c r="N37" s="85"/>
       <c r="O37" s="87"/>
       <c r="P37" s="85"/>
@@ -19739,16 +19735,16 @@
       <c r="E38" s="86"/>
       <c r="F38" s="86"/>
       <c r="G38" s="87"/>
-      <c r="H38" s="218" t="s">
+      <c r="H38" s="85" t="s">
         <v>765</v>
       </c>
-      <c r="I38" s="219"/>
+      <c r="I38" s="87"/>
       <c r="J38" s="85"/>
       <c r="K38" s="87"/>
-      <c r="L38" s="218" t="s">
+      <c r="L38" s="85" t="s">
         <v>765</v>
       </c>
-      <c r="M38" s="219"/>
+      <c r="M38" s="87"/>
       <c r="N38" s="85"/>
       <c r="O38" s="87"/>
       <c r="P38" s="85"/>
@@ -19765,16 +19761,16 @@
       <c r="E39" s="86"/>
       <c r="F39" s="86"/>
       <c r="G39" s="87"/>
-      <c r="H39" s="218" t="s">
+      <c r="H39" s="85" t="s">
         <v>647</v>
       </c>
-      <c r="I39" s="219"/>
+      <c r="I39" s="87"/>
       <c r="J39" s="85"/>
       <c r="K39" s="87"/>
-      <c r="L39" s="218" t="s">
+      <c r="L39" s="85" t="s">
         <v>647</v>
       </c>
-      <c r="M39" s="219"/>
+      <c r="M39" s="87"/>
       <c r="N39" s="85"/>
       <c r="O39" s="87"/>
       <c r="P39" s="85"/>
@@ -19791,16 +19787,16 @@
       <c r="E40" s="86"/>
       <c r="F40" s="86"/>
       <c r="G40" s="87"/>
-      <c r="H40" s="218" t="s">
+      <c r="H40" s="85" t="s">
         <v>647</v>
       </c>
-      <c r="I40" s="219"/>
+      <c r="I40" s="87"/>
       <c r="J40" s="85"/>
       <c r="K40" s="87"/>
-      <c r="L40" s="218" t="s">
+      <c r="L40" s="85" t="s">
         <v>647</v>
       </c>
-      <c r="M40" s="219"/>
+      <c r="M40" s="87"/>
       <c r="N40" s="85"/>
       <c r="O40" s="87"/>
       <c r="P40" s="85"/>
@@ -30601,8 +30597,8 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I24" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31:K32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B24" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31340,10 +31336,10 @@
       <c r="G28" s="87"/>
       <c r="H28" s="85"/>
       <c r="I28" s="87"/>
-      <c r="J28" s="153" t="s">
+      <c r="J28" s="107" t="s">
         <v>708</v>
       </c>
-      <c r="K28" s="147"/>
+      <c r="K28" s="108"/>
       <c r="L28" s="85"/>
       <c r="M28" s="87"/>
       <c r="N28" s="107" t="s">
@@ -31392,12 +31388,12 @@
       <c r="G30" s="87"/>
       <c r="H30" s="136"/>
       <c r="I30" s="137"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="137"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="101"/>
       <c r="L30" s="136"/>
       <c r="M30" s="137"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="137"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="101"/>
       <c r="P30" s="136"/>
       <c r="Q30" s="137"/>
       <c r="R30" s="85"/>
@@ -52365,7 +52361,7 @@
   </sheetPr>
   <dimension ref="B1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G27" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="G16" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="R27" sqref="R27:S29"/>
     </sheetView>
   </sheetViews>
